--- a/update_data/data/bank_psbc/dialogue/邮储业务语料汇总.xlsx
+++ b/update_data/data/bank_psbc/dialogue/邮储业务语料汇总.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="6120" windowWidth="23265" windowHeight="6165" tabRatio="877" activeTab="1"/>
+    <workbookView xWindow="-15" yWindow="6120" windowWidth="23265" windowHeight="6165" tabRatio="877" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="房贷" sheetId="2" r:id="rId1"/>
@@ -76,12 +76,11 @@
     <definedName name="Z_ECD853CD_C5A8_4AC8_B97D_CE8FC44D5709_.wvu.FilterData" localSheetId="13" hidden="1">转账汇款!$A$1:$F$60</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5524" uniqueCount="971">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5528" uniqueCount="973">
   <si>
     <t>问题</t>
   </si>
@@ -3720,6 +3719,14 @@
       </rPr>
       <t>/购房贷款</t>
     </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>改密码</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>改密码</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -6373,8 +6380,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView topLeftCell="C31" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -6439,9 +6446,8 @@
       <c r="D3" s="38" t="s">
         <v>238</v>
       </c>
-      <c r="E3" s="38" t="str">
-        <f>IF(D3&gt;H5,D2,"")</f>
-        <v>改密码</v>
+      <c r="E3" s="38" t="s">
+        <v>972</v>
       </c>
       <c r="F3" s="38" t="s">
         <v>239</v>
@@ -6471,9 +6477,8 @@
       <c r="D5" s="38" t="s">
         <v>242</v>
       </c>
-      <c r="E5" s="38" t="e">
-        <f>IF(D5&gt;0,#REF!,"")</f>
-        <v>#REF!</v>
+      <c r="E5" s="38" t="s">
+        <v>972</v>
       </c>
       <c r="F5" s="38" t="s">
         <v>921</v>
@@ -6571,9 +6576,8 @@
       <c r="D11" s="38" t="s">
         <v>242</v>
       </c>
-      <c r="E11" s="38" t="str">
-        <f t="shared" si="0"/>
-        <v>改密码</v>
+      <c r="E11" s="38" t="s">
+        <v>972</v>
       </c>
       <c r="F11" s="38" t="s">
         <v>921</v>
@@ -6771,9 +6775,8 @@
       <c r="D23" s="38" t="s">
         <v>242</v>
       </c>
-      <c r="E23" s="38" t="str">
-        <f t="shared" si="0"/>
-        <v>改密码</v>
+      <c r="E23" s="38" t="s">
+        <v>971</v>
       </c>
       <c r="F23" s="38" t="s">
         <v>251</v>
@@ -6784,10 +6787,7 @@
       <c r="B24" s="38"/>
       <c r="C24" s="38"/>
       <c r="D24" s="38"/>
-      <c r="E24" s="38" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="E24" s="38"/>
       <c r="F24" s="38"/>
     </row>
     <row r="25" spans="1:6" ht="222.75" customHeight="1">
@@ -18296,7 +18296,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B11" sqref="B11"/>
       <selection pane="topRight" activeCell="B11" sqref="B11"/>

--- a/update_data/data/bank_psbc/dialogue/邮储业务语料汇总.xlsx
+++ b/update_data/data/bank_psbc/dialogue/邮储业务语料汇总.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="6300" windowWidth="19440" windowHeight="5985" tabRatio="877" firstSheet="3" activeTab="5"/>
+    <workbookView xWindow="-15" yWindow="6300" windowWidth="19440" windowHeight="5985" tabRatio="877" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="房贷" sheetId="1" r:id="rId1"/>
@@ -163,15 +163,15 @@
   <calcPr calcId="145621"/>
   <customWorkbookViews>
     <customWorkbookView name="mengwei.chang(常孟玮) - 个人视图" guid="{36746F77-9D30-4F67-8DD6-349629627742}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1362" windowHeight="525" tabRatio="877" activeSheetId="6"/>
+    <customWorkbookView name="ling.tian(田玲) - 个人视图" guid="{C2CB2F22-775D-44AC-B11A-784BA6146A8B}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1596" windowHeight="603" tabRatio="877" activeSheetId="25"/>
+    <customWorkbookView name="hongru.chu(褚宏茹) - 个人视图" guid="{CD69C0EA-EBFB-45E3-BEA5-CC470598666F}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="781" tabRatio="949" activeSheetId="1"/>
     <customWorkbookView name="lulu.wang(王路路) - 个人视图" guid="{1E5A0D98-77D5-42E3-9872-0440613765AC}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1916" windowHeight="819" tabRatio="877" activeSheetId="18"/>
-    <customWorkbookView name="hongru.chu(褚宏茹) - 个人视图" guid="{CD69C0EA-EBFB-45E3-BEA5-CC470598666F}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="781" tabRatio="949" activeSheetId="1"/>
-    <customWorkbookView name="ling.tian(田玲) - 个人视图" guid="{C2CB2F22-775D-44AC-B11A-784BA6146A8B}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1596" windowHeight="603" tabRatio="877" activeSheetId="25"/>
   </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5586" uniqueCount="1176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5586" uniqueCount="1177">
   <si>
     <t>问题</t>
   </si>
@@ -4083,22 +4083,6 @@
   </si>
   <si>
     <r>
-      <t>我想贷款/我是来贷款的/我要贷款/贷款/贷点款/贷点钱/贷点小钱/稍微贷点钱/贷点人民币/贷钞票/我来办理贷款/我要办理贷款/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="4"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>怎么办贷款/哪里办贷款/在哪办贷款/贷款怎么办/贷款在哪里办/我来办个贷款/我来向银行借点钱/我来贷点钱/我想贷点钱</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>我想装修贷款/我要办装修贷款/办装修贷款/我想装修一下房子/我想把房子装修好一点/我想把房子装修的更好，需要贷点钱/装修贷款</t>
     </r>
     <r>
@@ -4178,22 +4162,6 @@
         <charset val="134"/>
       </rPr>
       <t>/怎么办装修贷/装修贷怎么办/在哪里办装修贷/装修贷在哪里办/装修贷款在哪里办</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>我想贷款/我是来贷款的/我要贷款/贷款/贷点款/贷点钱/贷点小钱/稍微贷点钱/贷点人民币/贷钞票/我来办理贷款/我要办理贷款</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="4"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>/怎么办贷款/哪里办贷款/在哪办贷款/贷款怎么办/贷款在哪里办/我来办个贷款/我来向银行借点钱/我来贷点钱/我想贷点钱</t>
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -4268,23 +4236,6 @@
   </si>
   <si>
     <r>
-      <t>我激活一下卡/我是来激活银行卡的/我想激活银行卡/我来办理银行卡激活/我想办理激活银行卡/办理银行卡激活/办理激活银行卡/银行卡激活/激活银行卡/激活银行卡账户/来帮我办个银行卡激活/我刚开的卡，还没激活/我来激活卡/我来开银行卡/我要激活卡/我来激活卡/我是来激活卡的/我想激活卡/激活卡怎么办</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="4"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/激活一下银行卡</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>储蓄卡怎么激活/借记卡怎么激活/激活怎么办的，我刚办好的借记卡/公司发的工资卡怎么激活啊/你能帮我激活工资卡吗/你能帮我激活借记卡吗/激活储蓄卡怎么办能帮我吗/你能帮我办理借记卡激活吗/我的工资卡需要激活你帮我办可以吗/工资卡到哪里激活啊/储蓄卡到哪里激活啊/借记卡到哪里激活啊/怎么激活借记卡/怎么激活储蓄卡</t>
     </r>
     <r>
@@ -5268,10 +5219,6 @@
     </r>
   </si>
   <si>
-    <t>借记卡/结算通/储蓄卡/存钱用的卡/储蓄卡/一张储蓄卡/不是透支的那种卡/存钱卡/储钱卡/利息高点的卡/工资卡/领工资用的卡/结算通/转账免费的那种卡</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>借记卡怎么办/结算通怎么办/储蓄卡怎么办</t>
     </r>
@@ -6810,32 +6757,6 @@
   </si>
   <si>
     <r>
-      <t>我想贷款/我是来贷款的/我要贷款/贷款/贷点款/贷点钱/贷点小钱/稍微贷点钱/贷点人民币/贷钞票/我来办理贷款/我要办理贷款/ 我要贷款</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="4"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>/怎么办贷款/哪里办贷款/在哪办贷款/贷款怎么办/贷款在哪里办/我来办个贷款/我来向银行借点钱/我来贷点钱/我想贷点钱</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>/去贷款/贷款我要贷款</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>我是来开通手机银行的/我想开通手机银行/手机银行/开手机银行/办手机银行业务/我来办个手机银行/我想开手机银行/我开手机银行/我要开手机银行/帮我开通手机银行/我是来开手机银行的/你帮我开个手机银行/帮我开个手机银行/我今天是来开手机银行的/我来开手机银行/</t>
     </r>
     <r>
@@ -7452,32 +7373,6 @@
   </si>
   <si>
     <r>
-      <t>我是来存款的/我要存款/存款/我来存钱/我是来存钱的/我要存钱/我存钱/存钱/我存款/我来存点钱/来存款/来存钱的/带我去存钱/带我去存款/我来办理存钱/存款，请帮我办理存钱/我有好多钱要存/我有一大笔钱要存/我要存一大笔钱/我想存一点钱/我是来存点钱的/我有笔钱要存在你们银行/我来你们银行存笔钱/我有点钱要存起来/我是来存点钞票的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="3" tint="0.39997558519241921"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>/在哪边办存钱/带我去存钱/在哪边存钱/哪个柜台办理存钱/哪个柜台能存钱/去哪里存钱/去哪个柜台存钱？/存钱去哪个柜台/你能带我去存钱吗？/我需要你带我去存钱/带我去存钱，可以吗？/到哪里存钱/在哪边办存款/带我去存款/在哪边存款/哪个柜台办理存款/哪个柜台能存款/去哪里存款/去哪个柜台存款？/存款去哪个柜台/你能带我去存款吗？/我需要你带我去存款/带我去存款，可以吗？/到哪里存款/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>你好我要存钱/你好我要存钱找谁呢/要存款/我要去存款/我去存钱/我今天来存钱/要存钱</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>我来换零钱/我来换零钞/我是来换零钱的/我来换点零钱/我来换点硬币/我是来换硬币的/我想换点零钱/我要换零钱/我要换硬币/换硬币/我来兑换零钱/兑换硬币/办理兑换零钱业务</t>
     </r>
     <r>
@@ -7495,32 +7390,6 @@
   </si>
   <si>
     <r>
-      <t>我想贷款/我是来贷款的/我要贷款/贷款/贷点款/贷点钱/贷点小钱/稍微贷点钱/贷点人民币/贷钞票/我来办理贷款/我要办理贷款/ 我要贷款</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="4"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>/怎么办贷款/哪里办贷款/在哪办贷款/贷款怎么办/贷款在哪里办/我来办个贷款/我来向银行借点钱/我来贷点钱/我想贷点钱/在哪边办贷款？/哪边能办理贷款啊/带我去办贷款/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>我要做贷款/我要办理贷款业务/</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>没有呢/还没有/并没有/没得/忘记联系了/我不知道怎么联系/还没有呢/我不知道要联系客户经理/我没有提前联系客户经理/我没有提前预约客户经理/我事先不知道/我事先不知道要联系客户经理/我不知道要提前联系/</t>
     </r>
     <r>
@@ -7584,6 +7453,346 @@
   </si>
   <si>
     <r>
+      <t>/汽车卡/透支用的那种/可以透支的/全球支付卡/一张信用卡/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>我要办理信用卡/信用卡怎么办</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>我来取钱/我是来取钱的/我来取款/我是来取款的/我又来取钱了/我来领工资/我来拿钱/我来领钱/我来取工资/我来领退休金/取退休金/我把退休金取出来/我想取钱/我想取款/取钱/取款/拿钱/领钱/我把工资取出来/没钱花了取点钱出来/我就是来取点钱的/我来取一点点钱啊/我想取一点钱/我想取一些钱出来/我来取点人民币/我是来取钱花的/最近缺钱啊，我要取点出来/我是来取工资的/我想把工资都取出来/我把钱都取出来/取款</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/在哪里取钱/在哪取钱/取钱去哪里办理/哪里可以取钱/怎么取钱/取钱怎么取/我来取点钱/我来取个钱/我来取一下钱/我要取好多钱/我要取好多好多钱/在哪里取款/在哪取款/取款去哪里办理/哪里可以取钱/怎么取款/取款怎么取/我来取点人民币/我要取好多人民币/取人民币/人民币怎么取/取点钱/取一下钱/取个钱/我来办理取款业务/我来取钞票/我来取点钞票/怎么取钞票/钞票怎么取/我来取点大洋/取大洋/在哪里取大洋/取大洋怎么取/取现金/取点现金/怎么取现金/现金怎么取/哪里取现金/取现金在哪里办理/我想取点钱/我想取款/我要取钱/我要取款/怎么取钱/怎么取款/我想取钱，怎么取/我想取点钱用/我想取些钱/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>我要取现金在哪里办理呀/取钱在哪里办理/今天要取钱呢/你带我去取钱/你好我要取钱/我不知道在哪取款/我来取钱的啊/我没钱用/我没钱用了/我是来取钱的/我要取钱我/我想取钱现在人太多了怎么弄啊/我来取钱的啊</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>三万/三万块/三万元/三万块钱/三万呀/也就三万块钱/也就三万块/三万三万/三万吧/也就三万块吧/也就三万/嗯三万/三万啊/三万块啊/也就三万块呀/就三万/三万吧/就三万块/三千/三千块/三千元/三千块钱/三千呀/也就三千块钱/也就三千块/三千三千/三千吧/也就三千块吧/也就三千/嗯三千/三千啊/三千块啊/也就三千块呀/就三千/三千吧/就三千块/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>三千行不行/三千可不可以/存三千块</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>三万/三万块/三万元/三万块钱/三万呀/也就三万块钱/也就三万块/三万三万/三万吧/也就三万块吧/也就三万/嗯三万/三万啊/三万块啊/也就三万块呀/就三万/三万吧/就三万块/三千/三千块/三千元/三千块钱/三千呀/也就三千块钱/也就三千块/三千三千/三千吧/也就三千块吧/也就三千/嗯三千/三千啊/三千块啊/也就三千块呀/就三千/三千吧/就三千块/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>三千行不行/三千可不可以</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>三千块/三千/就三千/三千元/三千块钱/三千元钱/三千块钱/三千元钱/三千块呀/三千三千/也就三千/三千吧/就三千块钱吧/也就三千吧/嗯三千</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/三千人民币/三千大洋/三千元现金/三千行不行/三千可不可以/三千可以吗/我取三千/我想取三千/我要取三千/我取三千吧/只取三千/也就取三千块钱吧/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>给我三千块钱/我要取三千块钱</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>我要查余额/我想查余额/查余额/我想查一下卡里还剩多少钱/我想查一下存折里还剩多少钱/我来查一下卡里还有多少钱/确认下账户余额/我要查下账户余额/我来查下账户余额/查下账户余额/我想知道我卡里有多少钱/我想知道我卡里剩多少钱了/我想知道我卡里的余额/我来查一下卡里的余额</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="3" tint="0.39997558519241921"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/到哪里查余额/查余额在哪里查？/查余额在哪里办理？/余额在哪里查？/查余额在哪个柜台/哪个柜台能查余额？/哪边能查余额/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>余额查询/我说要查查余额/我要查询余额/查询一下余额/我要看余额/查询余额/我要查询我的余额/我要查一下余额/我说我要查余额/余额怎么查</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>怎么查余额？/我想查余额怎么办？/我卡里还有多少钱？/我存折还有多少钱？/这里可以查余额吗/这里可以查账户余额吗/这里可以查下余额吗/如何查账户余额/如何查询账户余额/怎么查账户余额?/我想查一下卡里还有多少钱，可以么？/我能查一下卡里还有多少钱么？/如何查卡里还有多少钱？/如何查存折里还有多少钱？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="3" tint="0.39997558519241921"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/到哪里查余额/查余额在哪里查？/查余额在哪里办理？/余额在哪里查？/查余额在哪个柜台/哪个柜台能查余额？/哪边能查余额/余额怎么查</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>储蓄卡/借记卡/账户/这张储蓄卡/这张借记卡/我就办过一张借记卡/我没有信用卡/我只有借记卡/我只有储蓄卡/我就办过一张储蓄卡/我没有信用卡只有借记卡/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>注销借记卡</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>我是来存款的/我要存款/存款/我来存钱/我是来存钱的/我要存钱/我存钱/存钱/我存款/我来存点钱/来存款/来存钱的/带我去存钱/带我去存款/我来办理存钱/存款，请帮我办理存钱/我有好多钱要存/我有一大笔钱要存/我要存一大笔钱/我想存一点钱/我是来存点钱的/我有笔钱要存在你们银行/我来你们银行存笔钱/我有点钱要存起来/我是来存点钞票的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3" tint="0.39997558519241921"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/在哪边办存钱/带我去存钱/在哪边存钱/哪个柜台办理存钱/哪个柜台能存钱/去哪里存钱/去哪个柜台存钱？/存钱去哪个柜台/你能带我去存钱吗？/我需要你带我去存钱/带我去存钱，可以吗？/到哪里存钱/在哪边办存款/带我去存款/在哪边存款/哪个柜台办理存款/哪个柜台能存款/去哪里存款/去哪个柜台存款？/存款去哪个柜台/你能带我去存款吗？/我需要你带我去存款/带我去存款，可以吗？/到哪里存款/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>你好我要存钱/你好我要存钱找谁呢/要存款/我要去存款/我去存钱/我今天来存钱/要存钱/我要存钱的</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>我想贷款/我是来贷款的/我要贷款/贷款/贷点款/贷点钱/贷点小钱/稍微贷点钱/贷点人民币/贷钞票/我来办理贷款/我要办理贷款/ 我要贷款</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/怎么办贷款/哪里办贷款/在哪办贷款/贷款怎么办/贷款在哪里办/我来办个贷款/我来向银行借点钱/我来贷点钱/我想贷点钱/在哪边办贷款？/哪边能办理贷款啊/带我去办贷款/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>我要做贷款/我要办理贷款业务/我要办贷款</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>我想贷款/我是来贷款的/我要贷款/贷款/贷点款/贷点钱/贷点小钱/稍微贷点钱/贷点人民币/贷钞票/我来办理贷款/我要办理贷款/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>怎么办贷款/哪里办贷款/在哪办贷款/贷款怎么办/贷款在哪里办/我来办个贷款/我来向银行借点钱/我来贷点钱/我想贷点钱/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>我要办贷款</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>我想贷款/我是来贷款的/我要贷款/贷款/贷点款/贷点钱/贷点小钱/稍微贷点钱/贷点人民币/贷钞票/我来办理贷款/我要办理贷款</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/怎么办贷款/哪里办贷款/在哪办贷款/贷款怎么办/贷款在哪里办/我来办个贷款/我来向银行借点钱/我来贷点钱/我想贷点钱/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>我要办贷款</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>我想贷款/我是来贷款的/我要贷款/贷款/贷点款/贷点钱/贷点小钱/稍微贷点钱/贷点人民币/贷钞票/我来办理贷款/我要办理贷款/ 我要贷款</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/怎么办贷款/哪里办贷款/在哪办贷款/贷款怎么办/贷款在哪里办/我来办个贷款/我来向银行借点钱/我来贷点钱/我想贷点钱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/去贷款/贷款我要贷款/我要办贷款</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>借记卡/结算通/储蓄卡/存钱用的卡/储蓄卡/一张储蓄卡/不是透支的那种卡/存钱卡/储钱卡/利息高点的卡/工资卡/领工资用的卡/结算通/转账免费的那种卡/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>我说借记卡</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>我激活一下卡/我是来激活银行卡的/我想激活银行卡/我来办理银行卡激活/我想办理激活银行卡/办理银行卡激活/办理激活银行卡/银行卡激活/激活银行卡/激活银行卡账户/来帮我办个银行卡激活/我刚开的卡，还没激活/我来激活卡/我来开银行卡/我要激活卡/我来激活卡/我是来激活卡的/我想激活卡/激活卡怎么办</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/激活一下银行卡/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>我要办理新卡激活</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <t>我要办卡/我想办卡/我要办张银行卡/ 我想办张银行卡/我要办银行卡/办张卡/办张银行卡/办卡/办银行卡/我今天来办卡的/我就办张卡/我就办张银行卡/办卡/办张银行卡/办银行卡/我想尽快办张银行卡/我来办理开卡业务/我要办理开卡业务/ 我要开卡/ 我要办卡/我来办卡/来办卡/办卡/开户/开账户/开卡/办银行卡/办个银行卡/我办卡/</t>
     </r>
     <r>
@@ -7606,155 +7815,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>要办卡/我想办理一张银行卡/我要办卡啊/办卡的/我想办一张银行卡/我是来办卡的/那你能办卡吗/你能办卡吗/储存卡怎么办理的/我来开户/开个卡/要开户我要开户/我不是说了吗我要开户</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>/汽车卡/透支用的那种/可以透支的/全球支付卡/一张信用卡/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>我要办理信用卡/信用卡怎么办</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>我来取钱/我是来取钱的/我来取款/我是来取款的/我又来取钱了/我来领工资/我来拿钱/我来领钱/我来取工资/我来领退休金/取退休金/我把退休金取出来/我想取钱/我想取款/取钱/取款/拿钱/领钱/我把工资取出来/没钱花了取点钱出来/我就是来取点钱的/我来取一点点钱啊/我想取一点钱/我想取一些钱出来/我来取点人民币/我是来取钱花的/最近缺钱啊，我要取点出来/我是来取工资的/我想把工资都取出来/我把钱都取出来/取款</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="4"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/在哪里取钱/在哪取钱/取钱去哪里办理/哪里可以取钱/怎么取钱/取钱怎么取/我来取点钱/我来取个钱/我来取一下钱/我要取好多钱/我要取好多好多钱/在哪里取款/在哪取款/取款去哪里办理/哪里可以取钱/怎么取款/取款怎么取/我来取点人民币/我要取好多人民币/取人民币/人民币怎么取/取点钱/取一下钱/取个钱/我来办理取款业务/我来取钞票/我来取点钞票/怎么取钞票/钞票怎么取/我来取点大洋/取大洋/在哪里取大洋/取大洋怎么取/取现金/取点现金/怎么取现金/现金怎么取/哪里取现金/取现金在哪里办理/我想取点钱/我想取款/我要取钱/我要取款/怎么取钱/怎么取款/我想取钱，怎么取/我想取点钱用/我想取些钱/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>我要取现金在哪里办理呀/取钱在哪里办理/今天要取钱呢/你带我去取钱/你好我要取钱/我不知道在哪取款/我来取钱的啊/我没钱用/我没钱用了/我是来取钱的/我要取钱我/我想取钱现在人太多了怎么弄啊/我来取钱的啊</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>三万/三万块/三万元/三万块钱/三万呀/也就三万块钱/也就三万块/三万三万/三万吧/也就三万块吧/也就三万/嗯三万/三万啊/三万块啊/也就三万块呀/就三万/三万吧/就三万块/三千/三千块/三千元/三千块钱/三千呀/也就三千块钱/也就三千块/三千三千/三千吧/也就三千块吧/也就三千/嗯三千/三千啊/三千块啊/也就三千块呀/就三千/三千吧/就三千块/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>三千行不行/三千可不可以/存三千块</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>三万/三万块/三万元/三万块钱/三万呀/也就三万块钱/也就三万块/三万三万/三万吧/也就三万块吧/也就三万/嗯三万/三万啊/三万块啊/也就三万块呀/就三万/三万吧/就三万块/三千/三千块/三千元/三千块钱/三千呀/也就三千块钱/也就三千块/三千三千/三千吧/也就三千块吧/也就三千/嗯三千/三千啊/三千块啊/也就三千块呀/就三千/三千吧/就三千块/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>三千行不行/三千可不可以</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>三千块/三千/就三千/三千元/三千块钱/三千元钱/三千块钱/三千元钱/三千块呀/三千三千/也就三千/三千吧/就三千块钱吧/也就三千吧/嗯三千</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="4"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/三千人民币/三千大洋/三千元现金/三千行不行/三千可不可以/三千可以吗/我取三千/我想取三千/我要取三千/我取三千吧/只取三千/也就取三千块钱吧/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>给我三千块钱/我要取三千块钱</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>我要查余额/我想查余额/查余额/我想查一下卡里还剩多少钱/我想查一下存折里还剩多少钱/我来查一下卡里还有多少钱/确认下账户余额/我要查下账户余额/我来查下账户余额/查下账户余额/我想知道我卡里有多少钱/我想知道我卡里剩多少钱了/我想知道我卡里的余额/我来查一下卡里的余额</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="3" tint="0.39997558519241921"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>/到哪里查余额/查余额在哪里查？/查余额在哪里办理？/余额在哪里查？/查余额在哪个柜台/哪个柜台能查余额？/哪边能查余额/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>余额查询/我说要查查余额/我要查询余额/查询一下余额/我要看余额/查询余额/我要查询我的余额/我要查一下余额/我说我要查余额/余额怎么查</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>怎么查余额？/我想查余额怎么办？/我卡里还有多少钱？/我存折还有多少钱？/这里可以查余额吗/这里可以查账户余额吗/这里可以查下余额吗/如何查账户余额/如何查询账户余额/怎么查账户余额?/我想查一下卡里还有多少钱，可以么？/我能查一下卡里还有多少钱么？/如何查卡里还有多少钱？/如何查存折里还有多少钱？</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="3" tint="0.39997558519241921"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>/到哪里查余额/查余额在哪里查？/查余额在哪里办理？/余额在哪里查？/查余额在哪个柜台/哪个柜台能查余额？/哪边能查余额/余额怎么查</t>
+      <t>要办卡/我想办理一张银行卡/我要办卡啊/办卡的/我想办一张银行卡/我是来办卡的/那你能办卡吗/你能办卡吗/储存卡怎么办理的/我来开户/开个卡/要开户我要开户/我不是说了吗我要开户/我要开个户</t>
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -7790,7 +7851,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>办理财/我要买一百万理财/现在有什么好的理财产品/我想来看看你们这里有什么理财产品啊/有什么理财产品/有什么理财产品啊/我要理财/那你给我们介绍介绍一下理财业务好吗/最近有什么理财产品/最近有什么理财产品啊/买理财/你好都有什么产品介绍一下/现在你们有几个理财产品你给我说一下/我要买理财产品</t>
+      <t>办理财/我要买一百万理财/现在有什么好的理财产品/我想来看看你们这里有什么理财产品啊/有什么理财产品/有什么理财产品啊/我要理财/那你给我们介绍介绍一下理财业务好吗/最近有什么理财产品/最近有什么理财产品啊/买理财/你好都有什么产品介绍一下/现在你们有几个理财产品你给我说一下/我要买理财产品/我们银行的银保产品你知道吗</t>
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -8810,7 +8871,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{3580A7E0-B20A-489B-9B5E-9DE16325F148}" diskRevisions="1" revisionId="1945" version="304">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{000D6951-88C7-48E5-AEDD-546CB2F74ED8}" diskRevisions="1" revisionId="1992" version="314">
   <header guid="{F6FE1175-84F7-47D9-A08B-73FBABCF5114}" dateTime="2018-01-03T11:10:21" maxSheetId="31" userName="mengwei.chang(常孟玮)" r:id="rId238" minRId="1630" maxRId="1633">
     <sheetIdMap count="30">
       <sheetId val="1"/>
@@ -11089,6 +11150,346 @@
       <sheetId val="30"/>
     </sheetIdMap>
   </header>
+  <header guid="{404AAE41-565A-4299-9610-16788296A0BA}" dateTime="2018-01-28T09:03:38" maxSheetId="31" userName="mengwei.chang(常孟玮)" r:id="rId305" minRId="1946" maxRId="1947">
+    <sheetIdMap count="30">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="13"/>
+      <sheetId val="14"/>
+      <sheetId val="15"/>
+      <sheetId val="16"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+      <sheetId val="19"/>
+      <sheetId val="20"/>
+      <sheetId val="21"/>
+      <sheetId val="22"/>
+      <sheetId val="23"/>
+      <sheetId val="24"/>
+      <sheetId val="25"/>
+      <sheetId val="26"/>
+      <sheetId val="27"/>
+      <sheetId val="28"/>
+      <sheetId val="29"/>
+      <sheetId val="30"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{D97EAAEF-864F-482E-AD43-A8A20EB099D7}" dateTime="2018-01-28T15:31:07" maxSheetId="31" userName="mengwei.chang(常孟玮)" r:id="rId306" minRId="1960">
+    <sheetIdMap count="30">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="13"/>
+      <sheetId val="14"/>
+      <sheetId val="15"/>
+      <sheetId val="16"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+      <sheetId val="19"/>
+      <sheetId val="20"/>
+      <sheetId val="21"/>
+      <sheetId val="22"/>
+      <sheetId val="23"/>
+      <sheetId val="24"/>
+      <sheetId val="25"/>
+      <sheetId val="26"/>
+      <sheetId val="27"/>
+      <sheetId val="28"/>
+      <sheetId val="29"/>
+      <sheetId val="30"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{000356EA-B002-4AEC-A329-11185454CC5E}" dateTime="2018-01-28T15:33:02" maxSheetId="31" userName="mengwei.chang(常孟玮)" r:id="rId307" minRId="1973">
+    <sheetIdMap count="30">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="13"/>
+      <sheetId val="14"/>
+      <sheetId val="15"/>
+      <sheetId val="16"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+      <sheetId val="19"/>
+      <sheetId val="20"/>
+      <sheetId val="21"/>
+      <sheetId val="22"/>
+      <sheetId val="23"/>
+      <sheetId val="24"/>
+      <sheetId val="25"/>
+      <sheetId val="26"/>
+      <sheetId val="27"/>
+      <sheetId val="28"/>
+      <sheetId val="29"/>
+      <sheetId val="30"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{F05EA5DC-40D1-48C1-8E71-0FF06596455B}" dateTime="2018-01-28T15:33:12" maxSheetId="31" userName="mengwei.chang(常孟玮)" r:id="rId308" minRId="1974">
+    <sheetIdMap count="30">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="13"/>
+      <sheetId val="14"/>
+      <sheetId val="15"/>
+      <sheetId val="16"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+      <sheetId val="19"/>
+      <sheetId val="20"/>
+      <sheetId val="21"/>
+      <sheetId val="22"/>
+      <sheetId val="23"/>
+      <sheetId val="24"/>
+      <sheetId val="25"/>
+      <sheetId val="26"/>
+      <sheetId val="27"/>
+      <sheetId val="28"/>
+      <sheetId val="29"/>
+      <sheetId val="30"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{8DDBA23F-D743-4381-8CBB-2BCB34361DD2}" dateTime="2018-01-28T15:33:22" maxSheetId="31" userName="mengwei.chang(常孟玮)" r:id="rId309" minRId="1975">
+    <sheetIdMap count="30">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="13"/>
+      <sheetId val="14"/>
+      <sheetId val="15"/>
+      <sheetId val="16"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+      <sheetId val="19"/>
+      <sheetId val="20"/>
+      <sheetId val="21"/>
+      <sheetId val="22"/>
+      <sheetId val="23"/>
+      <sheetId val="24"/>
+      <sheetId val="25"/>
+      <sheetId val="26"/>
+      <sheetId val="27"/>
+      <sheetId val="28"/>
+      <sheetId val="29"/>
+      <sheetId val="30"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{12DB2DD4-ACD7-4822-BAF5-4F7C22FDA5B4}" dateTime="2018-01-28T15:33:31" maxSheetId="31" userName="mengwei.chang(常孟玮)" r:id="rId310" minRId="1976">
+    <sheetIdMap count="30">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="13"/>
+      <sheetId val="14"/>
+      <sheetId val="15"/>
+      <sheetId val="16"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+      <sheetId val="19"/>
+      <sheetId val="20"/>
+      <sheetId val="21"/>
+      <sheetId val="22"/>
+      <sheetId val="23"/>
+      <sheetId val="24"/>
+      <sheetId val="25"/>
+      <sheetId val="26"/>
+      <sheetId val="27"/>
+      <sheetId val="28"/>
+      <sheetId val="29"/>
+      <sheetId val="30"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{41E1F703-120E-4D87-9953-5CA9761A87AD}" dateTime="2018-01-28T15:36:31" maxSheetId="31" userName="mengwei.chang(常孟玮)" r:id="rId311" minRId="1977">
+    <sheetIdMap count="30">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="13"/>
+      <sheetId val="14"/>
+      <sheetId val="15"/>
+      <sheetId val="16"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+      <sheetId val="19"/>
+      <sheetId val="20"/>
+      <sheetId val="21"/>
+      <sheetId val="22"/>
+      <sheetId val="23"/>
+      <sheetId val="24"/>
+      <sheetId val="25"/>
+      <sheetId val="26"/>
+      <sheetId val="27"/>
+      <sheetId val="28"/>
+      <sheetId val="29"/>
+      <sheetId val="30"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{5A213416-5B24-42FE-AC87-455A822D653E}" dateTime="2018-01-28T15:37:50" maxSheetId="31" userName="mengwei.chang(常孟玮)" r:id="rId312" minRId="1978">
+    <sheetIdMap count="30">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="13"/>
+      <sheetId val="14"/>
+      <sheetId val="15"/>
+      <sheetId val="16"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+      <sheetId val="19"/>
+      <sheetId val="20"/>
+      <sheetId val="21"/>
+      <sheetId val="22"/>
+      <sheetId val="23"/>
+      <sheetId val="24"/>
+      <sheetId val="25"/>
+      <sheetId val="26"/>
+      <sheetId val="27"/>
+      <sheetId val="28"/>
+      <sheetId val="29"/>
+      <sheetId val="30"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{0763989A-D3BE-493E-A500-8507E59EBD68}" dateTime="2018-01-28T15:39:29" maxSheetId="31" userName="mengwei.chang(常孟玮)" r:id="rId313" minRId="1979">
+    <sheetIdMap count="30">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="13"/>
+      <sheetId val="14"/>
+      <sheetId val="15"/>
+      <sheetId val="16"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+      <sheetId val="19"/>
+      <sheetId val="20"/>
+      <sheetId val="21"/>
+      <sheetId val="22"/>
+      <sheetId val="23"/>
+      <sheetId val="24"/>
+      <sheetId val="25"/>
+      <sheetId val="26"/>
+      <sheetId val="27"/>
+      <sheetId val="28"/>
+      <sheetId val="29"/>
+      <sheetId val="30"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{000D6951-88C7-48E5-AEDD-546CB2F74ED8}" dateTime="2018-01-29T10:15:20" maxSheetId="31" userName="mengwei.chang(常孟玮)" r:id="rId314" minRId="1980">
+    <sheetIdMap count="30">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="13"/>
+      <sheetId val="14"/>
+      <sheetId val="15"/>
+      <sheetId val="16"/>
+      <sheetId val="17"/>
+      <sheetId val="18"/>
+      <sheetId val="19"/>
+      <sheetId val="20"/>
+      <sheetId val="21"/>
+      <sheetId val="22"/>
+      <sheetId val="23"/>
+      <sheetId val="24"/>
+      <sheetId val="25"/>
+      <sheetId val="26"/>
+      <sheetId val="27"/>
+      <sheetId val="28"/>
+      <sheetId val="29"/>
+      <sheetId val="30"/>
+    </sheetIdMap>
+  </header>
 </headers>
 </file>
 
@@ -18992,9 +19393,114 @@
 </revisions>
 </file>
 
-<file path=xl/revisions/revisionLog6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/revisions/revisionLog51.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="1800" sId="18">
+  <rcc rId="1946" sId="7">
+    <oc r="F12" t="inlineStr">
+      <is>
+        <t>储蓄卡/借记卡/账户/这张储蓄卡/这张借记卡/我就办过一张借记卡/我没有信用卡/我只有借记卡/我只有储蓄卡/我就办过一张储蓄卡/我没有信用卡只有借记卡/</t>
+      </is>
+    </oc>
+    <nc r="F12" t="inlineStr">
+      <is>
+        <r>
+          <t>储蓄卡/借记卡/账户/这张储蓄卡/这张借记卡/我就办过一张借记卡/我没有信用卡/我只有借记卡/我只有储蓄卡/我就办过一张储蓄卡/我没有信用卡只有借记卡/</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FFFF0000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>注销借记卡</t>
+        </r>
+        <phoneticPr fontId="1" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1947" sId="7">
+    <oc r="F4" t="inlineStr">
+      <is>
+        <t>储蓄卡/借记卡/账户/这张储蓄卡/这张借记卡/我就办过一张借记卡/我没有信用卡/我只有借记卡/我只有储蓄卡/我就办过一张储蓄卡/我没有信用卡只有借记卡/</t>
+      </is>
+    </oc>
+    <nc r="F4" t="inlineStr">
+      <is>
+        <r>
+          <t>储蓄卡/借记卡/账户/这张储蓄卡/这张借记卡/我就办过一张借记卡/我没有信用卡/我只有借记卡/我只有储蓄卡/我就办过一张储蓄卡/我没有信用卡只有借记卡/</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FFFF0000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>注销借记卡</t>
+        </r>
+        <phoneticPr fontId="1" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{36746F77-9D30-4F67-8DD6-349629627742}" action="delete"/>
+  <rdn rId="0" localSheetId="4" customView="1" name="Z_36746F77_9D30_4F67_8DD6_349629627742_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>车贷!$A$1:$F$50</formula>
+    <oldFormula>车贷!$A$1:$F$50</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="7" customView="1" name="Z_36746F77_9D30_4F67_8DD6_349629627742_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>注销借记卡!$A$1:$F$41</formula>
+    <oldFormula>注销借记卡!$A$1:$F$41</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="13" customView="1" name="Z_36746F77_9D30_4F67_8DD6_349629627742_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>改密码!$A$1:$F$44</formula>
+    <oldFormula>改密码!$A$1:$F$44</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="14" customView="1" name="Z_36746F77_9D30_4F67_8DD6_349629627742_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>转账汇款!$A$1:$F$60</formula>
+    <oldFormula>转账汇款!$A$1:$F$60</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="18" customView="1" name="Z_36746F77_9D30_4F67_8DD6_349629627742_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>存款!$A$1:$AC$166</formula>
+    <oldFormula>存款!$A$1:$AC$166</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="19" customView="1" name="Z_36746F77_9D30_4F67_8DD6_349629627742_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>取款!$A$1:$F$166</formula>
+    <oldFormula>取款!$A$1:$F$166</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="20" customView="1" name="Z_36746F77_9D30_4F67_8DD6_349629627742_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>查明细!$A$1:$F$3</formula>
+    <oldFormula>查明细!$A$1:$F$3</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="21" customView="1" name="Z_36746F77_9D30_4F67_8DD6_349629627742_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>注销手机银行!$A$1:$F$16</formula>
+    <oldFormula>注销手机银行!$A$1:$F$16</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="22" customView="1" name="Z_36746F77_9D30_4F67_8DD6_349629627742_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>注销电话银行!$A$1:$F$16</formula>
+    <oldFormula>注销电话银行!$A$1:$F$16</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="27" customView="1" name="Z_36746F77_9D30_4F67_8DD6_349629627742_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>'取消短信通知 '!$A$1:$F$56</formula>
+    <oldFormula>'取消短信通知 '!$A$1:$F$56</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="28" customView="1" name="Z_36746F77_9D30_4F67_8DD6_349629627742_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>注销信用卡!$B$1:$B$161</formula>
+    <oldFormula>注销信用卡!$B$1:$B$161</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="29" customView="1" name="Z_36746F77_9D30_4F67_8DD6_349629627742_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>开通短信通知!$A$1:$F$48</formula>
+    <oldFormula>开通短信通知!$A$1:$F$48</oldFormula>
+  </rdn>
+  <rcv guid="{36746F77-9D30-4F67-8DD6-349629627742}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog52.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1960" sId="18">
     <oc r="F2" t="inlineStr">
       <is>
         <r>
@@ -19018,7 +19524,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>你好我要存钱/你好我要存钱找谁呢/要存款/我要去存款/存钱给他</t>
+          <t>你好我要存钱/你好我要存钱找谁呢/要存款/我要去存款/我去存钱/我今天来存钱/要存钱</t>
         </r>
         <phoneticPr fontId="2" type="noConversion"/>
       </is>
@@ -19046,6 +19552,498 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
+          <t>你好我要存钱/你好我要存钱找谁呢/要存款/我要去存款/我去存钱/我今天来存钱/要存钱/我要存钱的</t>
+        </r>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{36746F77-9D30-4F67-8DD6-349629627742}" action="delete"/>
+  <rdn rId="0" localSheetId="4" customView="1" name="Z_36746F77_9D30_4F67_8DD6_349629627742_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>车贷!$A$1:$F$50</formula>
+    <oldFormula>车贷!$A$1:$F$50</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="7" customView="1" name="Z_36746F77_9D30_4F67_8DD6_349629627742_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>注销借记卡!$A$1:$F$41</formula>
+    <oldFormula>注销借记卡!$A$1:$F$41</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="13" customView="1" name="Z_36746F77_9D30_4F67_8DD6_349629627742_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>改密码!$A$1:$F$44</formula>
+    <oldFormula>改密码!$A$1:$F$44</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="14" customView="1" name="Z_36746F77_9D30_4F67_8DD6_349629627742_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>转账汇款!$A$1:$F$60</formula>
+    <oldFormula>转账汇款!$A$1:$F$60</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="18" customView="1" name="Z_36746F77_9D30_4F67_8DD6_349629627742_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>存款!$A$1:$AC$166</formula>
+    <oldFormula>存款!$A$1:$AC$166</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="19" customView="1" name="Z_36746F77_9D30_4F67_8DD6_349629627742_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>取款!$A$1:$F$166</formula>
+    <oldFormula>取款!$A$1:$F$166</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="20" customView="1" name="Z_36746F77_9D30_4F67_8DD6_349629627742_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>查明细!$A$1:$F$3</formula>
+    <oldFormula>查明细!$A$1:$F$3</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="21" customView="1" name="Z_36746F77_9D30_4F67_8DD6_349629627742_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>注销手机银行!$A$1:$F$16</formula>
+    <oldFormula>注销手机银行!$A$1:$F$16</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="22" customView="1" name="Z_36746F77_9D30_4F67_8DD6_349629627742_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>注销电话银行!$A$1:$F$16</formula>
+    <oldFormula>注销电话银行!$A$1:$F$16</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="27" customView="1" name="Z_36746F77_9D30_4F67_8DD6_349629627742_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>'取消短信通知 '!$A$1:$F$56</formula>
+    <oldFormula>'取消短信通知 '!$A$1:$F$56</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="28" customView="1" name="Z_36746F77_9D30_4F67_8DD6_349629627742_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>注销信用卡!$B$1:$B$161</formula>
+    <oldFormula>注销信用卡!$B$1:$B$161</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="29" customView="1" name="Z_36746F77_9D30_4F67_8DD6_349629627742_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>开通短信通知!$A$1:$F$48</formula>
+    <oldFormula>开通短信通知!$A$1:$F$48</oldFormula>
+  </rdn>
+  <rcv guid="{36746F77-9D30-4F67-8DD6-349629627742}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog53.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1973" sId="1">
+    <oc r="F2" t="inlineStr">
+      <is>
+        <r>
+          <t>我想贷款/我是来贷款的/我要贷款/贷款/贷点款/贷点钱/贷点小钱/稍微贷点钱/贷点人民币/贷钞票/我来办理贷款/我要办理贷款/ 我要贷款</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="4"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>/怎么办贷款/哪里办贷款/在哪办贷款/贷款怎么办/贷款在哪里办/我来办个贷款/我来向银行借点钱/我来贷点钱/我想贷点钱/在哪边办贷款？/哪边能办理贷款啊/带我去办贷款/</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="9" tint="-0.249977111117893"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>我要做贷款/我要办理贷款业务/</t>
+        </r>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="F2" t="inlineStr">
+      <is>
+        <r>
+          <t>我想贷款/我是来贷款的/我要贷款/贷款/贷点款/贷点钱/贷点小钱/稍微贷点钱/贷点人民币/贷钞票/我来办理贷款/我要办理贷款/ 我要贷款</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="4"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>/怎么办贷款/哪里办贷款/在哪办贷款/贷款怎么办/贷款在哪里办/我来办个贷款/我来向银行借点钱/我来贷点钱/我想贷点钱/在哪边办贷款？/哪边能办理贷款啊/带我去办贷款/</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="9" tint="-0.249977111117893"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>我要做贷款/我要办理贷款业务/我要办贷款</t>
+        </r>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog54.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1974" sId="2">
+    <oc r="F2" t="inlineStr">
+      <is>
+        <r>
+          <t>我想贷款/我是来贷款的/我要贷款/贷款/贷点款/贷点钱/贷点小钱/稍微贷点钱/贷点人民币/贷钞票/我来办理贷款/我要办理贷款/</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="4"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>怎么办贷款/哪里办贷款/在哪办贷款/贷款怎么办/贷款在哪里办/我来办个贷款/我来向银行借点钱/我来贷点钱/我想贷点钱</t>
+        </r>
+        <phoneticPr fontId="1" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="F2" t="inlineStr">
+      <is>
+        <r>
+          <t>我想贷款/我是来贷款的/我要贷款/贷款/贷点款/贷点钱/贷点小钱/稍微贷点钱/贷点人民币/贷钞票/我来办理贷款/我要办理贷款/</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="4"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>怎么办贷款/哪里办贷款/在哪办贷款/贷款怎么办/贷款在哪里办/我来办个贷款/我来向银行借点钱/我来贷点钱/我想贷点钱/</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color rgb="FFFF0000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>我要办贷款</t>
+        </r>
+        <phoneticPr fontId="1" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog55.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1975" sId="3">
+    <oc r="F2" t="inlineStr">
+      <is>
+        <r>
+          <t>我想贷款/我是来贷款的/我要贷款/贷款/贷点款/贷点钱/贷点小钱/稍微贷点钱/贷点人民币/贷钞票/我来办理贷款/我要办理贷款</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="4"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>/怎么办贷款/哪里办贷款/在哪办贷款/贷款怎么办/贷款在哪里办/我来办个贷款/我来向银行借点钱/我来贷点钱/我想贷点钱</t>
+        </r>
+        <phoneticPr fontId="1" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="F2" t="inlineStr">
+      <is>
+        <r>
+          <t>我想贷款/我是来贷款的/我要贷款/贷款/贷点款/贷点钱/贷点小钱/稍微贷点钱/贷点人民币/贷钞票/我来办理贷款/我要办理贷款</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="4"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>/怎么办贷款/哪里办贷款/在哪办贷款/贷款怎么办/贷款在哪里办/我来办个贷款/我来向银行借点钱/我来贷点钱/我想贷点钱/</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color rgb="FFFF0000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>我要办贷款</t>
+        </r>
+        <phoneticPr fontId="1" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog56.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1976" sId="4">
+    <oc r="F2" t="inlineStr">
+      <is>
+        <r>
+          <t>我想贷款/我是来贷款的/我要贷款/贷款/贷点款/贷点钱/贷点小钱/稍微贷点钱/贷点人民币/贷钞票/我来办理贷款/我要办理贷款/ 我要贷款</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="4"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>/怎么办贷款/哪里办贷款/在哪办贷款/贷款怎么办/贷款在哪里办/我来办个贷款/我来向银行借点钱/我来贷点钱/我想贷点钱</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="9" tint="-0.249977111117893"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>/去贷款/贷款我要贷款</t>
+        </r>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="F2" t="inlineStr">
+      <is>
+        <r>
+          <t>我想贷款/我是来贷款的/我要贷款/贷款/贷点款/贷点钱/贷点小钱/稍微贷点钱/贷点人民币/贷钞票/我来办理贷款/我要办理贷款/ 我要贷款</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="4"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>/怎么办贷款/哪里办贷款/在哪办贷款/贷款怎么办/贷款在哪里办/我来办个贷款/我来向银行借点钱/我来贷点钱/我想贷点钱</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="9" tint="-0.249977111117893"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>/去贷款/贷款我要贷款/我要办贷款</t>
+        </r>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog57.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1977" sId="15">
+    <oc r="F3" t="inlineStr">
+      <is>
+        <t>借记卡/结算通/储蓄卡/存钱用的卡/储蓄卡/一张储蓄卡/不是透支的那种卡/存钱卡/储钱卡/利息高点的卡/工资卡/领工资用的卡/结算通/转账免费的那种卡</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="F3" t="inlineStr">
+      <is>
+        <r>
+          <t>借记卡/结算通/储蓄卡/存钱用的卡/储蓄卡/一张储蓄卡/不是透支的那种卡/存钱卡/储钱卡/利息高点的卡/工资卡/领工资用的卡/结算通/转账免费的那种卡/</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FFFF0000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>我说借记卡</t>
+        </r>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog58.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1978" sId="5">
+    <oc r="F2" t="inlineStr">
+      <is>
+        <r>
+          <t>我激活一下卡/我是来激活银行卡的/我想激活银行卡/我来办理银行卡激活/我想办理激活银行卡/办理银行卡激活/办理激活银行卡/银行卡激活/激活银行卡/激活银行卡账户/来帮我办个银行卡激活/我刚开的卡，还没激活/我来激活卡/我来开银行卡/我要激活卡/我来激活卡/我是来激活卡的/我想激活卡/激活卡怎么办</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="4"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>/激活一下银行卡</t>
+        </r>
+        <phoneticPr fontId="1" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="F2" t="inlineStr">
+      <is>
+        <r>
+          <t>我激活一下卡/我是来激活银行卡的/我想激活银行卡/我来办理银行卡激活/我想办理激活银行卡/办理银行卡激活/办理激活银行卡/银行卡激活/激活银行卡/激活银行卡账户/来帮我办个银行卡激活/我刚开的卡，还没激活/我来激活卡/我来开银行卡/我要激活卡/我来激活卡/我是来激活卡的/我想激活卡/激活卡怎么办</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="4"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>/激活一下银行卡/</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FFFF0000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>我要办理新卡激活</t>
+        </r>
+        <phoneticPr fontId="1" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog59.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1979" sId="15">
+    <oc r="F2" t="inlineStr">
+      <is>
+        <r>
+          <t>我要办卡/我想办卡/我要办张银行卡/ 我想办张银行卡/我要办银行卡/办张卡/办张银行卡/办卡/办银行卡/我今天来办卡的/我就办张卡/我就办张银行卡/办卡/办张银行卡/办银行卡/我想尽快办张银行卡/我来办理开卡业务/我要办理开卡业务/ 我要开卡/ 我要办卡/我来办卡/来办卡/办卡/开户/开账户/开卡/办银行卡/办个银行卡/我办卡/</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="3" tint="0.39997558519241921"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>到哪办卡啊/卡在哪儿办？/去哪里开户/在哪边办银行卡？/</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FFC00000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>要办卡/我想办理一张银行卡/我要办卡啊/办卡的/我想办一张银行卡/我是来办卡的/那你能办卡吗/你能办卡吗/储存卡怎么办理的/我来开户/开个卡/要开户我要开户/我不是说了吗我要开户</t>
+        </r>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="F2" t="inlineStr">
+      <is>
+        <r>
+          <t>我要办卡/我想办卡/我要办张银行卡/ 我想办张银行卡/我要办银行卡/办张卡/办张银行卡/办卡/办银行卡/我今天来办卡的/我就办张卡/我就办张银行卡/办卡/办张银行卡/办银行卡/我想尽快办张银行卡/我来办理开卡业务/我要办理开卡业务/ 我要开卡/ 我要办卡/我来办卡/来办卡/办卡/开户/开账户/开卡/办银行卡/办个银行卡/我办卡/</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="3" tint="0.39997558519241921"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>到哪办卡啊/卡在哪儿办？/去哪里开户/在哪边办银行卡？/</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FFC00000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>要办卡/我想办理一张银行卡/我要办卡啊/办卡的/我想办一张银行卡/我是来办卡的/那你能办卡吗/你能办卡吗/储存卡怎么办理的/我来开户/开个卡/要开户我要开户/我不是说了吗我要开户/我要开个户</t>
+        </r>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog6.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1800" sId="18">
+    <oc r="F2" t="inlineStr">
+      <is>
+        <r>
+          <t>我是来存款的/我要存款/存款/我来存钱/我是来存钱的/我要存钱/我存钱/存钱/我存款/我来存点钱/来存款/来存钱的/带我去存钱/带我去存款/我来办理存钱/存款，请帮我办理存钱/我有好多钱要存/我有一大笔钱要存/我要存一大笔钱/我想存一点钱/我是来存点钱的/我有笔钱要存在你们银行/我来你们银行存笔钱/我有点钱要存起来/我是来存点钞票的</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="3" tint="0.39997558519241921"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>/在哪边办存钱/带我去存钱/在哪边存钱/哪个柜台办理存钱/哪个柜台能存钱/去哪里存钱/去哪个柜台存钱？/存钱去哪个柜台/你能带我去存钱吗？/我需要你带我去存钱/带我去存钱，可以吗？/到哪里存钱/在哪边办存款/带我去存款/在哪边存款/哪个柜台办理存款/哪个柜台能存款/去哪里存款/去哪个柜台存款？/存款去哪个柜台/你能带我去存款吗？/我需要你带我去存款/带我去存款，可以吗？/到哪里存款/</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="9" tint="-0.249977111117893"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>你好我要存钱/你好我要存钱找谁呢/要存款/我要去存款/存钱给他</t>
+        </r>
+        <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="F2" t="inlineStr">
+      <is>
+        <r>
+          <t>我是来存款的/我要存款/存款/我来存钱/我是来存钱的/我要存钱/我存钱/存钱/我存款/我来存点钱/来存款/来存钱的/带我去存钱/带我去存款/我来办理存钱/存款，请帮我办理存钱/我有好多钱要存/我有一大笔钱要存/我要存一大笔钱/我想存一点钱/我是来存点钱的/我有笔钱要存在你们银行/我来你们银行存笔钱/我有点钱要存起来/我是来存点钞票的</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="3" tint="0.39997558519241921"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>/在哪边办存钱/带我去存钱/在哪边存钱/哪个柜台办理存钱/哪个柜台能存钱/去哪里存钱/去哪个柜台存钱？/存钱去哪个柜台/你能带我去存钱吗？/我需要你带我去存钱/带我去存钱，可以吗？/到哪里存钱/在哪边办存款/带我去存款/在哪边存款/哪个柜台办理存款/哪个柜台能存款/去哪里存款/去哪个柜台存款？/存款去哪个柜台/你能带我去存款吗？/我需要你带我去存款/带我去存款，可以吗？/到哪里存款/</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="9" tint="-0.249977111117893"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
           <t>你好我要存钱/你好我要存钱找谁呢/要存款/我要去存款/</t>
         </r>
         <phoneticPr fontId="2" type="noConversion"/>
@@ -19168,6 +20166,139 @@
       </is>
     </nc>
   </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog60.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1980" sId="6">
+    <oc r="F2" t="inlineStr">
+      <is>
+        <r>
+          <t>我要买理财/我想买理财/我来买份理财产品/我是来买理财的/给我介绍一下理财/理财产品给我介绍一下/我想了解一下理财/我想了解一下最新的理财产品/我想知道你们最新的理财/你给我介绍下理财/我来买理财的/我买份理财/我要买份理财/我是来买理财产品的/你们理财经理跟我说最近有新的理财，我来看看/</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FFFF0000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>再给我推荐一个理财/我买那个理财好/你给我介绍一下理财</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="4"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>/理财在哪里购买/在哪里买理财/我想买个理财/最近有哪些新的理财/给我介绍一下保本理财/最近有什么保本理财/给我介绍一下非保本理财/我想买非保本理财/买保本理财/买非保本理财/买收益高的理财/</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="9" tint="-0.249977111117893"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>办理财/我要买一百万理财/现在有什么好的理财产品/我想来看看你们这里有什么理财产品啊/有什么理财产品/有什么理财产品啊/我要理财/那你给我们介绍介绍一下理财业务好吗/最近有什么理财产品/最近有什么理财产品啊/买理财/你好都有什么产品介绍一下/现在你们有几个理财产品你给我说一下/我要买理财产品</t>
+        </r>
+        <phoneticPr fontId="3" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="F2" t="inlineStr">
+      <is>
+        <r>
+          <t>我要买理财/我想买理财/我来买份理财产品/我是来买理财的/给我介绍一下理财/理财产品给我介绍一下/我想了解一下理财/我想了解一下最新的理财产品/我想知道你们最新的理财/你给我介绍下理财/我来买理财的/我买份理财/我要买份理财/我是来买理财产品的/你们理财经理跟我说最近有新的理财，我来看看/</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FFFF0000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>再给我推荐一个理财/我买那个理财好/你给我介绍一下理财</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="4"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>/理财在哪里购买/在哪里买理财/我想买个理财/最近有哪些新的理财/给我介绍一下保本理财/最近有什么保本理财/给我介绍一下非保本理财/我想买非保本理财/买保本理财/买非保本理财/买收益高的理财/</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="9" tint="-0.249977111117893"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>办理财/我要买一百万理财/现在有什么好的理财产品/我想来看看你们这里有什么理财产品啊/有什么理财产品/有什么理财产品啊/我要理财/那你给我们介绍介绍一下理财业务好吗/最近有什么理财产品/最近有什么理财产品啊/买理财/你好都有什么产品介绍一下/现在你们有几个理财产品你给我说一下/我要买理财产品/我们银行的银保产品你知道吗</t>
+        </r>
+        <phoneticPr fontId="3" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{36746F77-9D30-4F67-8DD6-349629627742}" action="delete"/>
+  <rdn rId="0" localSheetId="4" customView="1" name="Z_36746F77_9D30_4F67_8DD6_349629627742_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>车贷!$A$1:$F$50</formula>
+    <oldFormula>车贷!$A$1:$F$50</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="7" customView="1" name="Z_36746F77_9D30_4F67_8DD6_349629627742_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>注销借记卡!$A$1:$F$41</formula>
+    <oldFormula>注销借记卡!$A$1:$F$41</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="13" customView="1" name="Z_36746F77_9D30_4F67_8DD6_349629627742_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>改密码!$A$1:$F$44</formula>
+    <oldFormula>改密码!$A$1:$F$44</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="14" customView="1" name="Z_36746F77_9D30_4F67_8DD6_349629627742_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>转账汇款!$A$1:$F$60</formula>
+    <oldFormula>转账汇款!$A$1:$F$60</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="18" customView="1" name="Z_36746F77_9D30_4F67_8DD6_349629627742_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>存款!$A$1:$AC$166</formula>
+    <oldFormula>存款!$A$1:$AC$166</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="19" customView="1" name="Z_36746F77_9D30_4F67_8DD6_349629627742_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>取款!$A$1:$F$166</formula>
+    <oldFormula>取款!$A$1:$F$166</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="20" customView="1" name="Z_36746F77_9D30_4F67_8DD6_349629627742_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>查明细!$A$1:$F$3</formula>
+    <oldFormula>查明细!$A$1:$F$3</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="21" customView="1" name="Z_36746F77_9D30_4F67_8DD6_349629627742_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>注销手机银行!$A$1:$F$16</formula>
+    <oldFormula>注销手机银行!$A$1:$F$16</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="22" customView="1" name="Z_36746F77_9D30_4F67_8DD6_349629627742_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>注销电话银行!$A$1:$F$16</formula>
+    <oldFormula>注销电话银行!$A$1:$F$16</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="27" customView="1" name="Z_36746F77_9D30_4F67_8DD6_349629627742_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>'取消短信通知 '!$A$1:$F$56</formula>
+    <oldFormula>'取消短信通知 '!$A$1:$F$56</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="28" customView="1" name="Z_36746F77_9D30_4F67_8DD6_349629627742_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>注销信用卡!$B$1:$B$161</formula>
+    <oldFormula>注销信用卡!$B$1:$B$161</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="29" customView="1" name="Z_36746F77_9D30_4F67_8DD6_349629627742_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>开通短信通知!$A$1:$F$48</formula>
+    <oldFormula>开通短信通知!$A$1:$F$48</oldFormula>
+  </rdn>
+  <rcv guid="{36746F77-9D30-4F67-8DD6-349629627742}" action="add"/>
 </revisions>
 </file>
 
@@ -19565,7 +20696,9 @@
 </file>
 
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="0"/>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
+  <userInfo guid="{000D6951-88C7-48E5-AEDD-546CB2F74ED8}" name="mengwei.chang(常孟玮)" id="-1245372875" dateTime="2018-01-29T15:25:46"/>
+</users>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -19858,10 +20991,10 @@
   <dimension ref="A1:G76"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B80" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H4" sqref="H4"/>
+      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -19895,7 +21028,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="99.75">
@@ -19903,7 +21036,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>1124</v>
+        <v>1119</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>8</v>
@@ -19912,7 +21045,7 @@
         <v>9</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>1162</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="85.5">
@@ -19920,7 +21053,7 @@
         <v>11</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>8</v>
@@ -19933,7 +21066,7 @@
         <v>办贷款</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>1159</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="78.75" customHeight="1">
@@ -19941,7 +21074,7 @@
         <v>15</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>8</v>
@@ -19954,7 +21087,7 @@
         <v>办房贷</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>1163</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -20120,7 +21253,7 @@
         <v>办贷款</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>1097</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="99.75">
@@ -20161,7 +21294,7 @@
         <v>18</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>1098</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="42.75">
@@ -20245,7 +21378,7 @@
         <v>办贷款</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>1085</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="78.75" customHeight="1">
@@ -20982,7 +22115,7 @@
         <v>13</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="57">
@@ -21023,7 +22156,7 @@
         <v>13</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="28.5">
@@ -21044,20 +22177,20 @@
         <v>办房贷</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
     <customSheetView guid="{36746F77-9D30-4F67-8DD6-349629627742}" scale="85">
-      <pane xSplit="1" ySplit="1" topLeftCell="B80" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="H4" sqref="H4"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
       <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
     </customSheetView>
-    <customSheetView guid="{1E5A0D98-77D5-42E3-9872-0440613765AC}" scale="85">
-      <pane xSplit="1" ySplit="1" topLeftCell="B65" activePane="bottomRight" state="frozen"/>
+    <customSheetView guid="{C2CB2F22-775D-44AC-B11A-784BA6146A8B}" scale="85">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="bottomRight" activeCell="G23" sqref="G23"/>
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -21070,8 +22203,8 @@
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
       <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
     </customSheetView>
-    <customSheetView guid="{C2CB2F22-775D-44AC-B11A-784BA6146A8B}" scale="85">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <customSheetView guid="{1E5A0D98-77D5-42E3-9872-0440613765AC}" scale="85">
+      <pane xSplit="1" ySplit="1" topLeftCell="B65" activePane="bottomRight" state="frozen"/>
       <selection pane="bottomRight" activeCell="G23" sqref="G23"/>
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
@@ -21124,7 +22257,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="41" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="26" customFormat="1" ht="60" customHeight="1">
@@ -21132,7 +22265,7 @@
         <v>192</v>
       </c>
       <c r="B2" s="45" t="s">
-        <v>1136</v>
+        <v>1131</v>
       </c>
       <c r="C2" s="26" t="s">
         <v>194</v>
@@ -21141,7 +22274,7 @@
         <v>195</v>
       </c>
       <c r="F2" s="179" t="s">
-        <v>1151</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="31" customFormat="1" ht="24.95" customHeight="1">
@@ -21161,7 +22294,7 @@
         <v>195</v>
       </c>
       <c r="F4" s="179" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="31" customFormat="1" ht="9.75" customHeight="1">
@@ -21201,7 +22334,7 @@
         <v>195</v>
       </c>
       <c r="F8" s="179" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="31" customFormat="1" ht="15" customHeight="1">
@@ -21221,7 +22354,7 @@
         <v>199</v>
       </c>
       <c r="F10" s="179" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="31" customFormat="1" ht="13.5" customHeight="1">
@@ -21241,7 +22374,7 @@
         <v>199</v>
       </c>
       <c r="F12" s="179" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -21260,8 +22393,8 @@
       <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait"/>
     </customSheetView>
-    <customSheetView guid="{1E5A0D98-77D5-42E3-9872-0440613765AC}">
-      <selection activeCell="F12" sqref="F12"/>
+    <customSheetView guid="{C2CB2F22-775D-44AC-B11A-784BA6146A8B}">
+      <selection activeCell="F8" sqref="F8"/>
       <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
     </customSheetView>
@@ -21270,8 +22403,8 @@
       <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait"/>
     </customSheetView>
-    <customSheetView guid="{C2CB2F22-775D-44AC-B11A-784BA6146A8B}">
-      <selection activeCell="F8" sqref="F8"/>
+    <customSheetView guid="{1E5A0D98-77D5-42E3-9872-0440613765AC}">
+      <selection activeCell="F12" sqref="F12"/>
       <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
@@ -21319,7 +22452,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="26" customFormat="1" ht="216">
@@ -21327,7 +22460,7 @@
         <v>201</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>1137</v>
+        <v>1132</v>
       </c>
       <c r="C2" s="26" t="s">
         <v>203</v>
@@ -21353,7 +22486,7 @@
         <v>203</v>
       </c>
       <c r="D4" s="195" t="s">
-        <v>1084</v>
+        <v>1080</v>
       </c>
       <c r="F4" s="179" t="s">
         <v>829</v>
@@ -21367,7 +22500,7 @@
         <v>794</v>
       </c>
       <c r="B6" s="46" t="s">
-        <v>1137</v>
+        <v>1132</v>
       </c>
       <c r="C6" s="26" t="s">
         <v>203</v>
@@ -21389,8 +22522,8 @@
       <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{1E5A0D98-77D5-42E3-9872-0440613765AC}">
-      <selection activeCell="E3" sqref="E3"/>
+    <customSheetView guid="{C2CB2F22-775D-44AC-B11A-784BA6146A8B}">
+      <selection activeCell="D4" sqref="D4"/>
       <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
@@ -21399,8 +22532,8 @@
       <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
     </customSheetView>
-    <customSheetView guid="{C2CB2F22-775D-44AC-B11A-784BA6146A8B}">
-      <selection activeCell="D4" sqref="D4"/>
+    <customSheetView guid="{1E5A0D98-77D5-42E3-9872-0440613765AC}">
+      <selection activeCell="E3" sqref="E3"/>
       <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
     </customSheetView>
@@ -21448,7 +22581,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="26" customFormat="1" ht="69.95" customHeight="1">
@@ -21456,7 +22589,7 @@
         <v>206</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>1138</v>
+        <v>1133</v>
       </c>
       <c r="C2" s="26" t="s">
         <v>208</v>
@@ -21465,7 +22598,7 @@
         <v>209</v>
       </c>
       <c r="F2" s="27" t="s">
-        <v>1161</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="31" customFormat="1" ht="23.1" customHeight="1">
@@ -21485,7 +22618,7 @@
         <v>209</v>
       </c>
       <c r="F4" s="27" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -21497,16 +22630,16 @@
       <selection activeCell="F2" sqref="F2"/>
       <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{1E5A0D98-77D5-42E3-9872-0440613765AC}">
-      <selection activeCell="F4" sqref="F4"/>
+    <customSheetView guid="{C2CB2F22-775D-44AC-B11A-784BA6146A8B}">
+      <selection activeCell="F2" sqref="F2"/>
       <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{CD69C0EA-EBFB-45E3-BEA5-CC470598666F}">
       <selection activeCell="G1" sqref="G1"/>
       <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{C2CB2F22-775D-44AC-B11A-784BA6146A8B}">
-      <selection activeCell="F2" sqref="F2"/>
+    <customSheetView guid="{1E5A0D98-77D5-42E3-9872-0440613765AC}">
+      <selection activeCell="F4" sqref="F4"/>
       <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -21554,7 +22687,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="147.75" customHeight="1">
@@ -21562,7 +22695,7 @@
         <v>211</v>
       </c>
       <c r="B2" s="38" t="s">
-        <v>1139</v>
+        <v>1134</v>
       </c>
       <c r="C2" s="38" t="s">
         <v>213</v>
@@ -21572,7 +22705,7 @@
       </c>
       <c r="E2" s="38"/>
       <c r="F2" s="47" t="s">
-        <v>1017</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="42.75">
@@ -21580,7 +22713,7 @@
         <v>215</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>1140</v>
+        <v>1135</v>
       </c>
       <c r="C3" s="38" t="s">
         <v>213</v>
@@ -21593,7 +22726,7 @@
         <v>改密码</v>
       </c>
       <c r="F3" s="38" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -21622,7 +22755,7 @@
       </c>
       <c r="E5" s="38"/>
       <c r="F5" s="47" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="223.5" customHeight="1">
@@ -21643,7 +22776,7 @@
         <v>改密码</v>
       </c>
       <c r="F6" s="38" t="s">
-        <v>1020</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -21672,7 +22805,7 @@
       </c>
       <c r="E8" s="38"/>
       <c r="F8" s="38" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="28.5">
@@ -21722,7 +22855,7 @@
       </c>
       <c r="E11" s="38"/>
       <c r="F11" s="38" t="s">
-        <v>1027</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="213" customHeight="1">
@@ -21743,7 +22876,7 @@
         <v>改密码</v>
       </c>
       <c r="F12" s="38" t="s">
-        <v>1021</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -21922,7 +23055,7 @@
       </c>
       <c r="E23" s="38"/>
       <c r="F23" s="38" t="s">
-        <v>987</v>
+        <v>983</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="42.75">
@@ -21972,7 +23105,7 @@
       </c>
       <c r="E26" s="38"/>
       <c r="F26" s="38" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -22001,7 +23134,7 @@
       </c>
       <c r="E28" s="38"/>
       <c r="F28" s="38" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -22030,7 +23163,7 @@
       </c>
       <c r="E30" s="38"/>
       <c r="F30" s="38" t="s">
-        <v>1025</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -22258,23 +23391,23 @@
       <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
       <autoFilter ref="A1:F44"/>
     </customSheetView>
-    <customSheetView guid="{1E5A0D98-77D5-42E3-9872-0440613765AC}" showAutoFilter="1">
-      <selection activeCell="F5" sqref="F5"/>
+    <customSheetView guid="{C2CB2F22-775D-44AC-B11A-784BA6146A8B}" showAutoFilter="1" topLeftCell="C1">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-      <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
       <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
       <autoFilter ref="A1:F44"/>
     </customSheetView>
     <customSheetView guid="{CD69C0EA-EBFB-45E3-BEA5-CC470598666F}" showAutoFilter="1" topLeftCell="C1">
       <selection activeCell="F2" sqref="F2"/>
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
+      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
       <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
       <autoFilter ref="A1:F44"/>
     </customSheetView>
-    <customSheetView guid="{C2CB2F22-775D-44AC-B11A-784BA6146A8B}" showAutoFilter="1" topLeftCell="C1">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+    <customSheetView guid="{1E5A0D98-77D5-42E3-9872-0440613765AC}" showAutoFilter="1">
+      <selection activeCell="F5" sqref="F5"/>
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+      <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
       <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
       <autoFilter ref="A1:F44"/>
     </customSheetView>
@@ -22335,7 +23468,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="85.5">
@@ -22343,7 +23476,7 @@
         <v>239</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1141</v>
+        <v>1136</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>241</v>
@@ -22352,7 +23485,7 @@
         <v>242</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>1149</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="28.5">
@@ -22397,7 +23530,7 @@
         <v>242</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>990</v>
+        <v>986</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="28.5">
@@ -22450,7 +23583,7 @@
         <v>698</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>1142</v>
+        <v>1137</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>241</v>
@@ -22508,7 +23641,7 @@
         <v>转账</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>1004</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -22532,7 +23665,7 @@
         <v>245</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>991</v>
+        <v>987</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -22604,7 +23737,7 @@
         <v>转账</v>
       </c>
       <c r="F19" s="38" t="s">
-        <v>1002</v>
+        <v>998</v>
       </c>
       <c r="G19" s="38"/>
     </row>
@@ -22655,7 +23788,7 @@
         <v>转账</v>
       </c>
       <c r="F22" s="38" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -23243,8 +24376,8 @@
       <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
       <autoFilter ref="A1:F60"/>
     </customSheetView>
-    <customSheetView guid="{1E5A0D98-77D5-42E3-9872-0440613765AC}" showAutoFilter="1">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <customSheetView guid="{C2CB2F22-775D-44AC-B11A-784BA6146A8B}" showAutoFilter="1">
+      <pane xSplit="2" ySplit="1" topLeftCell="C26" activePane="bottomRight" state="frozen"/>
       <selection pane="bottomRight" activeCell="E7" sqref="E7"/>
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -23259,8 +24392,8 @@
       <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
       <autoFilter ref="A1:F60"/>
     </customSheetView>
-    <customSheetView guid="{C2CB2F22-775D-44AC-B11A-784BA6146A8B}" showAutoFilter="1">
-      <pane xSplit="2" ySplit="1" topLeftCell="C26" activePane="bottomRight" state="frozen"/>
+    <customSheetView guid="{1E5A0D98-77D5-42E3-9872-0440613765AC}" showAutoFilter="1">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="bottomRight" activeCell="E7" sqref="E7"/>
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
@@ -23314,15 +24447,15 @@
         <v>5</v>
       </c>
       <c r="G1" s="56" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="135">
       <c r="A2" s="57" t="s">
-        <v>1157</v>
+        <v>1152</v>
       </c>
       <c r="B2" s="57" t="s">
-        <v>1100</v>
+        <v>1095</v>
       </c>
       <c r="C2" s="57" t="s">
         <v>268</v>
@@ -23331,7 +24464,7 @@
         <v>268</v>
       </c>
       <c r="F2" s="58" t="s">
-        <v>1167</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="40.5">
@@ -23339,7 +24472,7 @@
         <v>107</v>
       </c>
       <c r="B3" s="57" t="s">
-        <v>1101</v>
+        <v>1096</v>
       </c>
       <c r="C3" s="57" t="s">
         <v>268</v>
@@ -23352,7 +24485,7 @@
         <v>开户</v>
       </c>
       <c r="F3" s="58" t="s">
-        <v>967</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="54">
@@ -23360,7 +24493,7 @@
         <v>272</v>
       </c>
       <c r="B4" s="57" t="s">
-        <v>1102</v>
+        <v>1097</v>
       </c>
       <c r="C4" s="57" t="s">
         <v>268</v>
@@ -23373,7 +24506,7 @@
         <v>办借记卡</v>
       </c>
       <c r="F4" s="58" t="s">
-        <v>1150</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="59" customFormat="1">
@@ -23388,7 +24521,7 @@
         <v>274</v>
       </c>
       <c r="B6" s="57" t="s">
-        <v>1100</v>
+        <v>1095</v>
       </c>
       <c r="C6" s="57" t="s">
         <v>268</v>
@@ -23397,7 +24530,7 @@
         <v>268</v>
       </c>
       <c r="F6" s="58" t="s">
-        <v>1148</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="67.5">
@@ -23405,7 +24538,7 @@
         <v>276</v>
       </c>
       <c r="B7" s="57" t="s">
-        <v>1101</v>
+        <v>1096</v>
       </c>
       <c r="C7" s="57" t="s">
         <v>268</v>
@@ -23418,7 +24551,7 @@
         <v>开户</v>
       </c>
       <c r="F7" s="58" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="67.5">
@@ -23426,7 +24559,7 @@
         <v>278</v>
       </c>
       <c r="B8" s="57" t="s">
-        <v>1102</v>
+        <v>1097</v>
       </c>
       <c r="C8" s="57" t="s">
         <v>268</v>
@@ -23459,7 +24592,7 @@
         <v>268</v>
       </c>
       <c r="F10" s="58" t="s">
-        <v>1143</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="40.5">
@@ -23521,7 +24654,7 @@
         <v>268</v>
       </c>
       <c r="F14" s="58" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -23563,7 +24696,7 @@
         <v>办借记卡</v>
       </c>
       <c r="F16" s="58" t="s">
-        <v>969</v>
+        <v>965</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="59" customFormat="1">
@@ -23583,7 +24716,7 @@
         <v>268</v>
       </c>
       <c r="F18" s="58" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -23645,7 +24778,7 @@
         <v>268</v>
       </c>
       <c r="F22" s="58" t="s">
-        <v>1093</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="40.5">
@@ -23707,7 +24840,7 @@
         <v>268</v>
       </c>
       <c r="F26" s="58" t="s">
-        <v>983</v>
+        <v>979</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -23769,7 +24902,7 @@
         <v>268</v>
       </c>
       <c r="F30" s="58" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="40.5">
@@ -23831,7 +24964,7 @@
         <v>270</v>
       </c>
       <c r="F34" s="58" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
     </row>
     <row r="35" spans="1:6" s="59" customFormat="1">
@@ -23851,7 +24984,7 @@
         <v>270</v>
       </c>
       <c r="F36" s="58" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="37" spans="1:6" s="59" customFormat="1">
@@ -23871,7 +25004,7 @@
         <v>273</v>
       </c>
       <c r="F38" s="58" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
     </row>
     <row r="39" spans="1:6" s="59" customFormat="1">
@@ -23891,7 +25024,7 @@
         <v>273</v>
       </c>
       <c r="F40" s="58" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
     </row>
     <row r="41" spans="1:6" s="59" customFormat="1">
@@ -23951,7 +25084,7 @@
         <v>268</v>
       </c>
       <c r="F46" s="58" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="40.5">
@@ -24017,7 +25150,7 @@
         <v>268</v>
       </c>
       <c r="F50" s="58" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -24079,7 +25212,7 @@
         <v>268</v>
       </c>
       <c r="F54" s="58" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="40.5">
@@ -24141,7 +25274,7 @@
         <v>268</v>
       </c>
       <c r="F58" s="58" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -24203,7 +25336,7 @@
         <v>268</v>
       </c>
       <c r="F62" s="58" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -24491,7 +25624,7 @@
         <v>268</v>
       </c>
       <c r="F82" s="58" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="27">
@@ -24511,7 +25644,7 @@
         <v>268</v>
       </c>
       <c r="F83" s="58" t="s">
-        <v>1168</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="84" spans="1:6" s="59" customFormat="1">
@@ -24531,7 +25664,7 @@
         <v>268</v>
       </c>
       <c r="F85" s="58" t="s">
-        <v>979</v>
+        <v>975</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -24571,7 +25704,7 @@
         <v>302</v>
       </c>
       <c r="F88" s="58" t="s">
-        <v>1145</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="89" spans="1:6" s="59" customFormat="1">
@@ -24591,7 +25724,7 @@
         <v>302</v>
       </c>
       <c r="F90" s="58" t="s">
-        <v>1146</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="91" spans="1:6" s="62" customFormat="1">
@@ -24611,7 +25744,7 @@
         <v>268</v>
       </c>
       <c r="F92" s="58" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -24631,7 +25764,7 @@
         <v>268</v>
       </c>
       <c r="F93" s="58" t="s">
-        <v>1165</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="94" spans="1:6" s="59" customFormat="1">
@@ -24675,7 +25808,7 @@
         <v>268</v>
       </c>
       <c r="F96" s="58" t="s">
-        <v>1166</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="97" spans="1:6" s="59" customFormat="1">
@@ -24719,7 +25852,7 @@
         <v>788</v>
       </c>
       <c r="F100" s="58" t="s">
-        <v>981</v>
+        <v>977</v>
       </c>
     </row>
     <row r="101" spans="1:6" s="59" customFormat="1">
@@ -24729,16 +25862,6 @@
   <customSheetViews>
     <customSheetView guid="{36746F77-9D30-4F67-8DD6-349629627742}" topLeftCell="C1">
       <selection activeCell="H2" sqref="H2"/>
-      <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait"/>
-    </customSheetView>
-    <customSheetView guid="{1E5A0D98-77D5-42E3-9872-0440613765AC}" topLeftCell="A85">
-      <selection activeCell="E88" sqref="E88"/>
-      <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait"/>
-    </customSheetView>
-    <customSheetView guid="{CD69C0EA-EBFB-45E3-BEA5-CC470598666F}" topLeftCell="B1">
-      <selection activeCell="G1" sqref="G1"/>
       <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait"/>
     </customSheetView>
@@ -24747,6 +25870,16 @@
       <selection pane="topRight" activeCell="F36" sqref="F36"/>
       <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+    </customSheetView>
+    <customSheetView guid="{CD69C0EA-EBFB-45E3-BEA5-CC470598666F}" topLeftCell="B1">
+      <selection activeCell="G1" sqref="G1"/>
+      <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait"/>
+    </customSheetView>
+    <customSheetView guid="{1E5A0D98-77D5-42E3-9872-0440613765AC}" topLeftCell="A85">
+      <selection activeCell="E88" sqref="E88"/>
+      <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait"/>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -24792,7 +25925,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="187" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="99.75">
@@ -24809,7 +25942,7 @@
         <v>312</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>1158</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -24829,7 +25962,7 @@
         <v>312</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>984</v>
+        <v>980</v>
       </c>
     </row>
   </sheetData>
@@ -24839,8 +25972,8 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{1E5A0D98-77D5-42E3-9872-0440613765AC}">
-      <selection activeCell="B8" sqref="B8"/>
+    <customSheetView guid="{C2CB2F22-775D-44AC-B11A-784BA6146A8B}">
+      <selection activeCell="F2" sqref="F2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
@@ -24849,8 +25982,8 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
     </customSheetView>
-    <customSheetView guid="{C2CB2F22-775D-44AC-B11A-784BA6146A8B}">
-      <selection activeCell="F2" sqref="F2"/>
+    <customSheetView guid="{1E5A0D98-77D5-42E3-9872-0440613765AC}">
+      <selection activeCell="B8" sqref="B8"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
     </customSheetView>
@@ -24899,7 +26032,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="187" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="156.75">
@@ -24907,7 +26040,7 @@
         <v>317</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>1103</v>
+        <v>1098</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>319</v>
@@ -24917,10 +26050,10 @@
       </c>
       <c r="E2" s="66"/>
       <c r="F2" s="5" t="s">
-        <v>1173</v>
+        <v>1165</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -24943,10 +26076,10 @@
       </c>
       <c r="E4" s="66"/>
       <c r="F4" s="5" t="s">
-        <v>1174</v>
+        <v>1166</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="52" customFormat="1" ht="28.5">
@@ -24983,10 +26116,10 @@
         <v>324</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -25007,7 +26140,7 @@
         <v>324</v>
       </c>
       <c r="F9" s="38" t="s">
-        <v>996</v>
+        <v>992</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="128.25">
@@ -25027,10 +26160,10 @@
         <v>324</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="52" customFormat="1" ht="28.5">
@@ -25067,7 +26200,7 @@
         <v>324</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
       <c r="G13" s="5">
         <v>15</v>
@@ -25087,7 +26220,7 @@
         <v>324</v>
       </c>
       <c r="F15" s="38" t="s">
-        <v>997</v>
+        <v>993</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="128.25">
@@ -25107,7 +26240,7 @@
         <v>324</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
       <c r="G16" s="5">
         <v>15</v>
@@ -25119,16 +26252,16 @@
       <selection activeCell="F2" sqref="F2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{1E5A0D98-77D5-42E3-9872-0440613765AC}">
-      <selection activeCell="F2" sqref="F2"/>
+    <customSheetView guid="{C2CB2F22-775D-44AC-B11A-784BA6146A8B}" topLeftCell="A16">
+      <selection activeCell="I16" sqref="I16"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{CD69C0EA-EBFB-45E3-BEA5-CC470598666F}" topLeftCell="A11">
       <selection activeCell="G18" sqref="G18"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{C2CB2F22-775D-44AC-B11A-784BA6146A8B}" topLeftCell="A16">
-      <selection activeCell="I16" sqref="I16"/>
+    <customSheetView guid="{1E5A0D98-77D5-42E3-9872-0440613765AC}">
+      <selection activeCell="F2" sqref="F2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -25141,7 +26274,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC180"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -25176,7 +26309,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="64" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
     </row>
     <row r="2" spans="1:29" ht="229.5">
@@ -25184,7 +26317,7 @@
         <v>330</v>
       </c>
       <c r="B2" s="71" t="s">
-        <v>1104</v>
+        <v>1099</v>
       </c>
       <c r="C2" s="66" t="s">
         <v>332</v>
@@ -25194,7 +26327,7 @@
       </c>
       <c r="E2" s="66"/>
       <c r="F2" s="37" t="s">
-        <v>1160</v>
+        <v>1168</v>
       </c>
       <c r="G2" s="66"/>
       <c r="H2" s="66"/>
@@ -25225,7 +26358,7 @@
         <v>730</v>
       </c>
       <c r="B3" s="71" t="s">
-        <v>1105</v>
+        <v>1100</v>
       </c>
       <c r="C3" s="66" t="s">
         <v>332</v>
@@ -25238,7 +26371,7 @@
         <v>存款</v>
       </c>
       <c r="F3" s="72" t="s">
-        <v>1170</v>
+        <v>1162</v>
       </c>
       <c r="G3" s="66"/>
       <c r="H3" s="66"/>
@@ -25357,7 +26490,7 @@
       </c>
       <c r="E6" s="66"/>
       <c r="F6" s="37" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="G6" s="66"/>
       <c r="H6" s="66"/>
@@ -25401,7 +26534,7 @@
         <v>存款</v>
       </c>
       <c r="F7" s="72" t="s">
-        <v>1171</v>
+        <v>1163</v>
       </c>
       <c r="G7" s="66"/>
       <c r="H7" s="66"/>
@@ -25432,7 +26565,7 @@
         <v>306</v>
       </c>
       <c r="B8" s="71" t="s">
-        <v>1106</v>
+        <v>1101</v>
       </c>
       <c r="C8" s="66" t="s">
         <v>332</v>
@@ -25520,7 +26653,7 @@
       </c>
       <c r="E10" s="66"/>
       <c r="F10" s="37" t="s">
-        <v>1155</v>
+        <v>1150</v>
       </c>
       <c r="G10" s="66"/>
       <c r="H10" s="66"/>
@@ -25683,7 +26816,7 @@
       </c>
       <c r="E14" s="66"/>
       <c r="F14" s="37" t="s">
-        <v>1156</v>
+        <v>1151</v>
       </c>
       <c r="G14" s="66"/>
       <c r="H14" s="66"/>
@@ -25846,7 +26979,7 @@
       </c>
       <c r="E18" s="66"/>
       <c r="F18" s="37" t="s">
-        <v>999</v>
+        <v>995</v>
       </c>
       <c r="G18" s="66"/>
       <c r="H18" s="66"/>
@@ -26009,7 +27142,7 @@
       </c>
       <c r="E22" s="66"/>
       <c r="F22" s="37" t="s">
-        <v>999</v>
+        <v>995</v>
       </c>
       <c r="G22" s="66"/>
       <c r="H22" s="66"/>
@@ -26366,7 +27499,7 @@
       </c>
       <c r="E31" s="66"/>
       <c r="F31" s="37" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="G31" s="66"/>
       <c r="H31" s="66"/>
@@ -26604,7 +27737,7 @@
       </c>
       <c r="E37" s="66"/>
       <c r="F37" s="37" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="G37" s="66"/>
       <c r="H37" s="66"/>
@@ -26767,7 +27900,7 @@
       </c>
       <c r="E41" s="66"/>
       <c r="F41" s="37" t="s">
-        <v>999</v>
+        <v>995</v>
       </c>
       <c r="G41" s="66"/>
       <c r="H41" s="66"/>
@@ -26930,7 +28063,7 @@
       </c>
       <c r="E45" s="66"/>
       <c r="F45" s="37" t="s">
-        <v>999</v>
+        <v>995</v>
       </c>
       <c r="G45" s="66"/>
       <c r="H45" s="66"/>
@@ -27093,7 +28226,7 @@
       </c>
       <c r="E49" s="66"/>
       <c r="F49" s="37" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="G49" s="66"/>
       <c r="H49" s="66"/>
@@ -27256,7 +28389,7 @@
       </c>
       <c r="E53" s="66"/>
       <c r="F53" s="37" t="s">
-        <v>999</v>
+        <v>995</v>
       </c>
       <c r="G53" s="66"/>
       <c r="H53" s="66"/>
@@ -27419,7 +28552,7 @@
       </c>
       <c r="E57" s="66"/>
       <c r="F57" s="37" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="G57" s="66"/>
       <c r="H57" s="66"/>
@@ -27463,7 +28596,7 @@
         <v>存款</v>
       </c>
       <c r="F58" s="72" t="s">
-        <v>1152</v>
+        <v>1147</v>
       </c>
       <c r="G58" s="66"/>
       <c r="H58" s="66"/>
@@ -27538,7 +28671,7 @@
       </c>
       <c r="E60" s="66"/>
       <c r="F60" s="37" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="G60" s="66"/>
       <c r="H60" s="66"/>
@@ -27657,7 +28790,7 @@
       </c>
       <c r="E63" s="66"/>
       <c r="F63" s="37" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="G63" s="66"/>
       <c r="H63" s="66"/>
@@ -27701,7 +28834,7 @@
         <v>存款</v>
       </c>
       <c r="F64" s="37" t="s">
-        <v>1089</v>
+        <v>1085</v>
       </c>
       <c r="G64" s="66"/>
       <c r="H64" s="66"/>
@@ -27820,7 +28953,7 @@
       </c>
       <c r="E67" s="66"/>
       <c r="F67" s="37" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="G67" s="66"/>
       <c r="H67" s="66"/>
@@ -27983,7 +29116,7 @@
       </c>
       <c r="E71" s="66"/>
       <c r="F71" s="37" t="s">
-        <v>999</v>
+        <v>995</v>
       </c>
       <c r="G71" s="66"/>
       <c r="H71" s="66"/>
@@ -28102,7 +29235,7 @@
       </c>
       <c r="E74" s="66"/>
       <c r="F74" s="37" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="G74" s="66"/>
       <c r="H74" s="66"/>
@@ -28265,7 +29398,7 @@
       </c>
       <c r="E78" s="66"/>
       <c r="F78" s="37" t="s">
-        <v>999</v>
+        <v>995</v>
       </c>
       <c r="G78" s="66"/>
       <c r="H78" s="66"/>
@@ -28503,7 +29636,7 @@
       </c>
       <c r="E84" s="66"/>
       <c r="F84" s="37" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="G84" s="66"/>
       <c r="H84" s="66"/>
@@ -28666,7 +29799,7 @@
       </c>
       <c r="E88" s="66"/>
       <c r="F88" s="37" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="G88" s="66"/>
       <c r="H88" s="66"/>
@@ -28901,7 +30034,7 @@
       </c>
       <c r="E94" s="66"/>
       <c r="F94" s="37" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="G94" s="66"/>
       <c r="H94" s="66"/>
@@ -29064,7 +30197,7 @@
       </c>
       <c r="E98" s="66"/>
       <c r="F98" s="37" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="G98" s="66"/>
       <c r="H98" s="66"/>
@@ -29227,7 +30360,7 @@
       </c>
       <c r="E102" s="66"/>
       <c r="F102" s="37" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="G102" s="66"/>
       <c r="H102" s="66"/>
@@ -29390,7 +30523,7 @@
       </c>
       <c r="E106" s="66"/>
       <c r="F106" s="37" t="s">
-        <v>999</v>
+        <v>995</v>
       </c>
       <c r="G106" s="66"/>
       <c r="H106" s="66"/>
@@ -29553,7 +30686,7 @@
       </c>
       <c r="E110" s="66"/>
       <c r="F110" s="37" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="G110" s="66"/>
       <c r="H110" s="66"/>
@@ -29879,7 +31012,7 @@
       </c>
       <c r="E118" s="66"/>
       <c r="F118" s="37" t="s">
-        <v>999</v>
+        <v>995</v>
       </c>
       <c r="G118" s="66"/>
       <c r="H118" s="66"/>
@@ -30042,7 +31175,7 @@
       </c>
       <c r="E122" s="66"/>
       <c r="F122" s="37" t="s">
-        <v>999</v>
+        <v>995</v>
       </c>
       <c r="G122" s="66"/>
       <c r="H122" s="66"/>
@@ -30186,7 +31319,7 @@
       </c>
       <c r="E127" s="66"/>
       <c r="F127" s="77" t="s">
-        <v>1001</v>
+        <v>997</v>
       </c>
       <c r="G127" s="66"/>
       <c r="H127" s="66"/>
@@ -30233,7 +31366,7 @@
       </c>
       <c r="E129" s="66"/>
       <c r="F129" s="72" t="s">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="G129" s="66"/>
       <c r="H129" s="66"/>
@@ -30280,7 +31413,7 @@
       </c>
       <c r="E131" s="66"/>
       <c r="F131" s="77" t="s">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="G131" s="66"/>
       <c r="H131" s="66"/>
@@ -30327,7 +31460,7 @@
       </c>
       <c r="E133" s="66"/>
       <c r="F133" s="37" t="s">
-        <v>1012</v>
+        <v>1008</v>
       </c>
       <c r="G133" s="66"/>
       <c r="H133" s="66"/>
@@ -30402,7 +31535,7 @@
       </c>
       <c r="E135" s="66"/>
       <c r="F135" s="37" t="s">
-        <v>1011</v>
+        <v>1007</v>
       </c>
       <c r="G135" s="66"/>
       <c r="H135" s="66"/>
@@ -30589,7 +31722,7 @@
       </c>
       <c r="E143" s="66"/>
       <c r="F143" s="91" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="144" spans="1:29" s="76" customFormat="1">
@@ -31042,7 +32175,7 @@
       </c>
       <c r="E174" s="66"/>
       <c r="F174" s="77" t="s">
-        <v>1014</v>
+        <v>1010</v>
       </c>
       <c r="G174" s="66"/>
       <c r="H174" s="66"/>
@@ -31073,7 +32206,7 @@
     </row>
     <row r="176" spans="1:29" s="199" customFormat="1" ht="100.5" customHeight="1">
       <c r="A176" s="196" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
       <c r="B176" s="197" t="s">
         <v>340</v>
@@ -31086,7 +32219,7 @@
       </c>
       <c r="E176" s="108"/>
       <c r="F176" s="198" t="s">
-        <v>1092</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="177" spans="1:29" s="199" customFormat="1" ht="27">
@@ -31115,7 +32248,7 @@
     </row>
     <row r="179" spans="1:29" s="199" customFormat="1" ht="97.5" customHeight="1">
       <c r="A179" s="196" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
       <c r="B179" s="197" t="s">
         <v>340</v>
@@ -31128,7 +32261,7 @@
       </c>
       <c r="E179" s="108"/>
       <c r="F179" s="198" t="s">
-        <v>1092</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="180" spans="1:29" s="199" customFormat="1" ht="102.75" customHeight="1">
@@ -31149,7 +32282,7 @@
         <v>存款未知金额</v>
       </c>
       <c r="F180" s="173" t="s">
-        <v>1091</v>
+        <v>1087</v>
       </c>
       <c r="G180" s="108"/>
       <c r="H180" s="108"/>
@@ -31178,14 +32311,14 @@
   </sheetData>
   <autoFilter ref="A1:AC166"/>
   <customSheetViews>
-    <customSheetView guid="{36746F77-9D30-4F67-8DD6-349629627742}" scale="85" showAutoFilter="1" topLeftCell="A2">
+    <customSheetView guid="{36746F77-9D30-4F67-8DD6-349629627742}" scale="85" showAutoFilter="1">
       <selection activeCell="F3" sqref="F3"/>
       <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
       <autoFilter ref="A1:AC166"/>
     </customSheetView>
-    <customSheetView guid="{1E5A0D98-77D5-42E3-9872-0440613765AC}" scale="85" showAutoFilter="1" topLeftCell="A169">
-      <selection activeCell="B179" sqref="B179"/>
+    <customSheetView guid="{C2CB2F22-775D-44AC-B11A-784BA6146A8B}" showAutoFilter="1" topLeftCell="A37">
+      <selection activeCell="F184" sqref="F184"/>
       <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
       <autoFilter ref="A1:AC166"/>
@@ -31196,8 +32329,8 @@
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
       <autoFilter ref="A1:AC166"/>
     </customSheetView>
-    <customSheetView guid="{C2CB2F22-775D-44AC-B11A-784BA6146A8B}" showAutoFilter="1" topLeftCell="A37">
-      <selection activeCell="F184" sqref="F184"/>
+    <customSheetView guid="{1E5A0D98-77D5-42E3-9872-0440613765AC}" scale="85" showAutoFilter="1" topLeftCell="A169">
+      <selection activeCell="B179" sqref="B179"/>
       <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
       <autoFilter ref="A1:AC166"/>
@@ -31248,7 +32381,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="94" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="97" customFormat="1" ht="243">
@@ -31256,7 +32389,7 @@
         <v>405</v>
       </c>
       <c r="B2" s="72" t="s">
-        <v>1107</v>
+        <v>1102</v>
       </c>
       <c r="C2" s="97" t="s">
         <v>407</v>
@@ -31266,7 +32399,7 @@
       </c>
       <c r="E2" s="66"/>
       <c r="F2" s="72" t="s">
-        <v>1169</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="97" customFormat="1" ht="67.5">
@@ -31286,7 +32419,7 @@
         <v>408</v>
       </c>
       <c r="F3" s="72" t="s">
-        <v>1172</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="97" customFormat="1" ht="108">
@@ -31294,7 +32427,7 @@
         <v>345</v>
       </c>
       <c r="B4" s="72" t="s">
-        <v>1109</v>
+        <v>1104</v>
       </c>
       <c r="C4" s="97" t="s">
         <v>407</v>
@@ -31561,7 +32694,7 @@
         <v>408</v>
       </c>
       <c r="F21" s="72" t="s">
-        <v>1147</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="97" customFormat="1" ht="81">
@@ -31923,7 +33056,7 @@
         <v>408</v>
       </c>
       <c r="F45" s="72" t="s">
-        <v>1094</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="46" spans="1:6" s="97" customFormat="1" ht="40.5">
@@ -33074,7 +34207,7 @@
         <v>717</v>
       </c>
       <c r="B120" s="72" t="s">
-        <v>1108</v>
+        <v>1103</v>
       </c>
       <c r="C120" s="97" t="s">
         <v>407</v>
@@ -33752,7 +34885,7 @@
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
       <autoFilter ref="A1:F166"/>
     </customSheetView>
-    <customSheetView guid="{1E5A0D98-77D5-42E3-9872-0440613765AC}" scale="90" showAutoFilter="1">
+    <customSheetView guid="{C2CB2F22-775D-44AC-B11A-784BA6146A8B}" scale="90" showAutoFilter="1" topLeftCell="A151">
       <selection activeCell="F2" sqref="F2"/>
       <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -33764,7 +34897,7 @@
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
       <autoFilter ref="A1:F166"/>
     </customSheetView>
-    <customSheetView guid="{C2CB2F22-775D-44AC-B11A-784BA6146A8B}" scale="90" showAutoFilter="1" topLeftCell="A151">
+    <customSheetView guid="{1E5A0D98-77D5-42E3-9872-0440613765AC}" scale="90" showAutoFilter="1">
       <selection activeCell="F2" sqref="F2"/>
       <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
@@ -33782,10 +34915,10 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E14" sqref="E14"/>
+      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -33817,7 +34950,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="85.5">
@@ -33825,7 +34958,7 @@
         <v>51</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>1127</v>
+        <v>1122</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>8</v>
@@ -33834,7 +34967,7 @@
         <v>52</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>887</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="28.5">
@@ -33842,7 +34975,7 @@
         <v>54</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>1128</v>
+        <v>1123</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>8</v>
@@ -33878,7 +35011,7 @@
         <v>52</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="90.75" customHeight="1">
@@ -34025,13 +35158,13 @@
   </sheetData>
   <customSheetViews>
     <customSheetView guid="{36746F77-9D30-4F67-8DD6-349629627742}">
-      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="E14" sqref="E14"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
       <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
     </customSheetView>
-    <customSheetView guid="{1E5A0D98-77D5-42E3-9872-0440613765AC}">
+    <customSheetView guid="{C2CB2F22-775D-44AC-B11A-784BA6146A8B}">
       <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -34045,7 +35178,7 @@
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
       <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
     </customSheetView>
-    <customSheetView guid="{C2CB2F22-775D-44AC-B11A-784BA6146A8B}">
+    <customSheetView guid="{1E5A0D98-77D5-42E3-9872-0440613765AC}">
       <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -34103,7 +35236,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="94" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="101.25" customHeight="1">
@@ -34111,7 +35244,7 @@
         <v>468</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1110</v>
+        <v>1105</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>319</v>
@@ -34120,7 +35253,7 @@
         <v>470</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>1023</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="114" hidden="1">
@@ -34181,7 +35314,7 @@
         <v>470</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>1015</v>
+        <v>1011</v>
       </c>
       <c r="G6" s="4">
         <v>15</v>
@@ -34205,7 +35338,7 @@
         <v>470</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>1006</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="171" customHeight="1">
@@ -34460,7 +35593,7 @@
         <v>474</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>1007</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="27" spans="1:7" s="50" customFormat="1">
@@ -34481,7 +35614,7 @@
         <v>474</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>1008</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="29" spans="1:7" s="50" customFormat="1">
@@ -34550,7 +35683,7 @@
         <v>496</v>
       </c>
       <c r="F34" s="38" t="s">
-        <v>1016</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="101.25" customHeight="1">
@@ -34639,7 +35772,7 @@
         <v>476</v>
       </c>
       <c r="B40" s="111" t="s">
-        <v>1111</v>
+        <v>1106</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>319</v>
@@ -34683,7 +35816,7 @@
         <v>499</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>1110</v>
+        <v>1105</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>319</v>
@@ -34703,7 +35836,7 @@
         <v>472</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>1112</v>
+        <v>1107</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>319</v>
@@ -35550,9 +36683,9 @@
         </filterColumn>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{1E5A0D98-77D5-42E3-9872-0440613765AC}" scale="88" filter="1" showAutoFilter="1">
-      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="G6" sqref="G6"/>
+    <customSheetView guid="{C2CB2F22-775D-44AC-B11A-784BA6146A8B}" scale="88" filter="1" showAutoFilter="1">
+      <pane xSplit="1" ySplit="1" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
       <pageSetup paperSize="9" orientation="portrait"/>
       <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
@@ -35578,9 +36711,9 @@
         </filterColumn>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{C2CB2F22-775D-44AC-B11A-784BA6146A8B}" scale="88" filter="1" showAutoFilter="1">
-      <pane xSplit="1" ySplit="1" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
+    <customSheetView guid="{1E5A0D98-77D5-42E3-9872-0440613765AC}" scale="88" filter="1" showAutoFilter="1">
+      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="G6" sqref="G6"/>
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
       <pageSetup paperSize="9" orientation="portrait"/>
       <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
@@ -35637,7 +36770,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="185.25">
@@ -35645,7 +36778,7 @@
         <v>504</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1113</v>
+        <v>1108</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>506</v>
@@ -35654,7 +36787,7 @@
         <v>507</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="128.25">
@@ -35688,7 +36821,7 @@
         <v>512</v>
       </c>
       <c r="F6" s="37" t="s">
-        <v>1033</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="37" customFormat="1" ht="40.5">
@@ -35709,7 +36842,7 @@
         <v>注销</v>
       </c>
       <c r="F7" s="37" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="37" customFormat="1" ht="202.5">
@@ -35726,7 +36859,7 @@
         <v>512</v>
       </c>
       <c r="F9" s="37" t="s">
-        <v>1035</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="37" customFormat="1" ht="40.5">
@@ -35747,7 +36880,7 @@
         <v>注销</v>
       </c>
       <c r="F10" s="37" t="s">
-        <v>1060</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="37" customFormat="1" ht="135">
@@ -35802,7 +36935,7 @@
         <v>512</v>
       </c>
       <c r="F15" s="37" t="s">
-        <v>1035</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="37" customFormat="1" ht="67.5">
@@ -35823,7 +36956,7 @@
         <v>注销</v>
       </c>
       <c r="F16" s="37" t="s">
-        <v>1061</v>
+        <v>1057</v>
       </c>
     </row>
   </sheetData>
@@ -35835,8 +36968,8 @@
       <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
       <autoFilter ref="A1:F16"/>
     </customSheetView>
-    <customSheetView guid="{1E5A0D98-77D5-42E3-9872-0440613765AC}" showAutoFilter="1" topLeftCell="A7">
-      <selection activeCell="B11" sqref="B11"/>
+    <customSheetView guid="{C2CB2F22-775D-44AC-B11A-784BA6146A8B}" showAutoFilter="1">
+      <selection activeCell="F2" sqref="F2"/>
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
       <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
       <autoFilter ref="A1:F16"/>
@@ -35847,8 +36980,8 @@
       <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
       <autoFilter ref="A1:F16"/>
     </customSheetView>
-    <customSheetView guid="{C2CB2F22-775D-44AC-B11A-784BA6146A8B}" showAutoFilter="1">
-      <selection activeCell="F2" sqref="F2"/>
+    <customSheetView guid="{1E5A0D98-77D5-42E3-9872-0440613765AC}" showAutoFilter="1" topLeftCell="A7">
+      <selection activeCell="B11" sqref="B11"/>
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
       <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
       <autoFilter ref="A1:F16"/>
@@ -35897,7 +37030,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="342">
@@ -35905,7 +37038,7 @@
         <v>519</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>1114</v>
+        <v>1109</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>506</v>
@@ -35914,7 +37047,7 @@
         <v>521</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>1062</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="384.75">
@@ -35931,7 +37064,7 @@
         <v>521</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>1037</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="37" customFormat="1" ht="229.5">
@@ -35948,7 +37081,7 @@
         <v>512</v>
       </c>
       <c r="F6" s="37" t="s">
-        <v>1048</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="37" customFormat="1" ht="108">
@@ -35969,7 +37102,7 @@
         <v>注销</v>
       </c>
       <c r="F7" s="37" t="s">
-        <v>1049</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="37" customFormat="1" ht="310.5">
@@ -35986,7 +37119,7 @@
         <v>512</v>
       </c>
       <c r="F9" s="37" t="s">
-        <v>1035</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="37" customFormat="1" ht="40.5">
@@ -36007,7 +37140,7 @@
         <v>注销</v>
       </c>
       <c r="F10" s="37" t="s">
-        <v>1038</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="37" customFormat="1" ht="297">
@@ -36024,7 +37157,7 @@
         <v>512</v>
       </c>
       <c r="F12" s="37" t="s">
-        <v>1039</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="37" customFormat="1" ht="40.5">
@@ -36095,8 +37228,8 @@
       <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
       <autoFilter ref="A1:F16"/>
     </customSheetView>
-    <customSheetView guid="{1E5A0D98-77D5-42E3-9872-0440613765AC}" showAutoFilter="1" topLeftCell="A13">
-      <selection activeCell="B34" sqref="B34"/>
+    <customSheetView guid="{C2CB2F22-775D-44AC-B11A-784BA6146A8B}" showAutoFilter="1" topLeftCell="A7">
+      <selection activeCell="F9" sqref="F9"/>
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
       <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
       <autoFilter ref="A1:F16"/>
@@ -36107,8 +37240,8 @@
       <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
       <autoFilter ref="A1:F16"/>
     </customSheetView>
-    <customSheetView guid="{C2CB2F22-775D-44AC-B11A-784BA6146A8B}" showAutoFilter="1" topLeftCell="A7">
-      <selection activeCell="F9" sqref="F9"/>
+    <customSheetView guid="{1E5A0D98-77D5-42E3-9872-0440613765AC}" showAutoFilter="1" topLeftCell="A13">
+      <selection activeCell="B34" sqref="B34"/>
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
       <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
       <autoFilter ref="A1:F16"/>
@@ -36157,7 +37290,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="204.75" customHeight="1">
@@ -36174,7 +37307,7 @@
         <v>530</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>1040</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="234.75" customHeight="1">
@@ -36182,7 +37315,7 @@
         <v>531</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1115</v>
+        <v>1110</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>506</v>
@@ -36191,7 +37324,7 @@
         <v>530</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>1047</v>
+        <v>1043</v>
       </c>
     </row>
   </sheetData>
@@ -36201,8 +37334,8 @@
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
       <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
     </customSheetView>
-    <customSheetView guid="{1E5A0D98-77D5-42E3-9872-0440613765AC}" scale="85">
-      <selection activeCell="O20" sqref="O20"/>
+    <customSheetView guid="{C2CB2F22-775D-44AC-B11A-784BA6146A8B}" scale="85">
+      <selection activeCell="F4" sqref="F4"/>
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
       <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
     </customSheetView>
@@ -36211,8 +37344,8 @@
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
       <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
     </customSheetView>
-    <customSheetView guid="{C2CB2F22-775D-44AC-B11A-784BA6146A8B}" scale="85">
-      <selection activeCell="F4" sqref="F4"/>
+    <customSheetView guid="{1E5A0D98-77D5-42E3-9872-0440613765AC}" scale="85">
+      <selection activeCell="O20" sqref="O20"/>
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
       <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
     </customSheetView>
@@ -36260,7 +37393,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="190" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="H1" s="117"/>
     </row>
@@ -36269,7 +37402,7 @@
         <v>94</v>
       </c>
       <c r="B2" s="124" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="C2" s="118" t="s">
         <v>96</v>
@@ -36279,7 +37412,7 @@
       </c>
       <c r="E2" s="120"/>
       <c r="F2" s="121" t="s">
-        <v>1050</v>
+        <v>1046</v>
       </c>
       <c r="G2" s="123"/>
       <c r="H2" s="123"/>
@@ -36302,7 +37435,7 @@
         <v>挂失</v>
       </c>
       <c r="F3" s="125" t="s">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="G3" s="122"/>
       <c r="H3" s="123"/>
@@ -36325,7 +37458,7 @@
         <v>挂失借记卡</v>
       </c>
       <c r="F4" s="125" t="s">
-        <v>1053</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="128" customFormat="1" ht="23.1" customHeight="1">
@@ -36336,7 +37469,7 @@
         <v>98</v>
       </c>
       <c r="B6" s="124" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="C6" s="118" t="s">
         <v>96</v>
@@ -36346,7 +37479,7 @@
       </c>
       <c r="E6" s="120"/>
       <c r="F6" s="125" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="118" customFormat="1" ht="69.95" customHeight="1">
@@ -36367,7 +37500,7 @@
         <v>挂失</v>
       </c>
       <c r="F7" s="129" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="126" customFormat="1" ht="69.95" customHeight="1">
@@ -36388,7 +37521,7 @@
         <v>挂失借记卡</v>
       </c>
       <c r="F8" s="130" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="128" customFormat="1" ht="18.95" customHeight="1">
@@ -36399,7 +37532,7 @@
         <v>98</v>
       </c>
       <c r="B10" s="124" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="C10" s="118" t="s">
         <v>96</v>
@@ -36409,7 +37542,7 @@
       </c>
       <c r="E10" s="120"/>
       <c r="F10" s="125" t="s">
-        <v>1056</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="118" customFormat="1" ht="69.95" customHeight="1">
@@ -36468,7 +37601,7 @@
         <v>94</v>
       </c>
       <c r="B14" s="124" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="C14" s="118" t="s">
         <v>96</v>
@@ -36478,7 +37611,7 @@
       </c>
       <c r="E14" s="120"/>
       <c r="F14" s="121" t="s">
-        <v>1059</v>
+        <v>1055</v>
       </c>
       <c r="G14" s="125"/>
       <c r="H14" s="123"/>
@@ -36501,7 +37634,7 @@
         <v>挂失</v>
       </c>
       <c r="F15" s="129" t="s">
-        <v>1058</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="16" spans="1:8" s="126" customFormat="1" ht="69.95" customHeight="1">
@@ -36522,7 +37655,7 @@
         <v>挂失借记卡</v>
       </c>
       <c r="F16" s="125" t="s">
-        <v>1057</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="128" customFormat="1" ht="21" customHeight="1">
@@ -36537,7 +37670,7 @@
         <v>94</v>
       </c>
       <c r="B18" s="124" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="C18" s="118" t="s">
         <v>96</v>
@@ -36547,7 +37680,7 @@
       </c>
       <c r="E18" s="120"/>
       <c r="F18" s="121" t="s">
-        <v>1063</v>
+        <v>1059</v>
       </c>
       <c r="G18" s="125"/>
       <c r="H18" s="123"/>
@@ -36608,7 +37741,7 @@
         <v>94</v>
       </c>
       <c r="B22" s="124" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="C22" s="118" t="s">
         <v>96</v>
@@ -36673,7 +37806,7 @@
         <v>98</v>
       </c>
       <c r="B26" s="124" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="C26" s="118" t="s">
         <v>96</v>
@@ -36683,7 +37816,7 @@
       </c>
       <c r="E26" s="120"/>
       <c r="F26" s="125" t="s">
-        <v>1041</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="27" spans="1:8" s="118" customFormat="1" ht="69.95" customHeight="1">
@@ -36738,7 +37871,7 @@
         <v>98</v>
       </c>
       <c r="B30" s="124" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="C30" s="118" t="s">
         <v>96</v>
@@ -36811,7 +37944,7 @@
       </c>
       <c r="E34" s="120"/>
       <c r="F34" s="125" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="G34" s="122"/>
       <c r="H34" s="123"/>
@@ -36905,7 +38038,7 @@
       </c>
       <c r="E40" s="120"/>
       <c r="F40" s="125" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="G40" s="122"/>
       <c r="H40" s="123"/>
@@ -36953,7 +38086,7 @@
       </c>
       <c r="E43" s="120"/>
       <c r="F43" s="125" t="s">
-        <v>1032</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="44" spans="1:8" s="126" customFormat="1" ht="69.95" customHeight="1">
@@ -36999,7 +38132,7 @@
       </c>
       <c r="E46" s="120"/>
       <c r="F46" s="125" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="47" spans="1:8" s="128" customFormat="1" ht="26.1" customHeight="1">
@@ -37048,7 +38181,7 @@
         <v>562</v>
       </c>
       <c r="F50" s="126" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="51" spans="1:8" s="118" customFormat="1" ht="69.95" customHeight="1">
@@ -37069,7 +38202,7 @@
         <v>挂失银行卡</v>
       </c>
       <c r="F51" s="125" t="s">
-        <v>1052</v>
+        <v>1048</v>
       </c>
       <c r="G51" s="122"/>
       <c r="H51" s="123"/>
@@ -37113,7 +38246,7 @@
       </c>
       <c r="E54" s="120"/>
       <c r="F54" s="125" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="55" spans="1:8" s="118" customFormat="1" ht="69.95" customHeight="1">
@@ -37238,7 +38371,7 @@
         <v>562</v>
       </c>
       <c r="F62" s="129" t="s">
-        <v>1043</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="63" spans="1:8" s="118" customFormat="1" ht="69.95" customHeight="1">
@@ -37355,7 +38488,7 @@
         <v>101</v>
       </c>
       <c r="B70" s="124" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
       <c r="C70" s="118" t="s">
         <v>96</v>
@@ -37364,7 +38497,7 @@
         <v>102</v>
       </c>
       <c r="F70" s="121" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="71" spans="1:8" s="126" customFormat="1" ht="69.95" customHeight="1">
@@ -37395,7 +38528,7 @@
         <v>103</v>
       </c>
       <c r="B73" s="124" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
       <c r="C73" s="133" t="s">
         <v>96</v>
@@ -37435,7 +38568,7 @@
         <v>101</v>
       </c>
       <c r="B76" s="124" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
       <c r="C76" s="118" t="s">
         <v>96</v>
@@ -37475,7 +38608,7 @@
         <v>103</v>
       </c>
       <c r="B79" s="124" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
       <c r="C79" s="133" t="s">
         <v>96</v>
@@ -37484,7 +38617,7 @@
         <v>102</v>
       </c>
       <c r="F79" s="125" t="s">
-        <v>1045</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="80" spans="1:8" s="126" customFormat="1" ht="69.95" customHeight="1">
@@ -37681,7 +38814,7 @@
         <v>553</v>
       </c>
       <c r="F94" s="125" t="s">
-        <v>1046</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="96" spans="1:6" s="126" customFormat="1" ht="69.95" customHeight="1">
@@ -37707,16 +38840,16 @@
       <selection activeCell="F73" sqref="F73"/>
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
     </customSheetView>
-    <customSheetView guid="{1E5A0D98-77D5-42E3-9872-0440613765AC}" topLeftCell="A79">
-      <selection activeCell="B2" sqref="B2"/>
+    <customSheetView guid="{C2CB2F22-775D-44AC-B11A-784BA6146A8B}" topLeftCell="A85">
+      <selection activeCell="F54" sqref="F54"/>
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
     </customSheetView>
     <customSheetView guid="{CD69C0EA-EBFB-45E3-BEA5-CC470598666F}">
       <selection activeCell="G1" sqref="G1"/>
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
     </customSheetView>
-    <customSheetView guid="{C2CB2F22-775D-44AC-B11A-784BA6146A8B}" topLeftCell="A85">
-      <selection activeCell="F54" sqref="F54"/>
+    <customSheetView guid="{1E5A0D98-77D5-42E3-9872-0440613765AC}" topLeftCell="A79">
+      <selection activeCell="B2" sqref="B2"/>
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
     </customSheetView>
   </customSheetViews>
@@ -37765,7 +38898,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="190" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="H1" s="117"/>
     </row>
@@ -37784,7 +38917,7 @@
       </c>
       <c r="E2" s="120"/>
       <c r="F2" s="121" t="s">
-        <v>1068</v>
+        <v>1064</v>
       </c>
       <c r="G2" s="122"/>
       <c r="H2" s="123"/>
@@ -37807,7 +38940,7 @@
         <v>挂失</v>
       </c>
       <c r="F3" s="192" t="s">
-        <v>1005</v>
+        <v>1001</v>
       </c>
       <c r="G3" s="122"/>
       <c r="H3" s="123"/>
@@ -37830,7 +38963,7 @@
         <v>挂失存折</v>
       </c>
       <c r="F4" s="125" t="s">
-        <v>1070</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="128" customFormat="1" ht="18" customHeight="1"/>
@@ -37849,7 +38982,7 @@
       </c>
       <c r="E6" s="120"/>
       <c r="F6" s="125" t="s">
-        <v>1069</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="118" customFormat="1" ht="69.95" customHeight="1">
@@ -37870,7 +39003,7 @@
         <v>挂失</v>
       </c>
       <c r="F7" s="193" t="s">
-        <v>1071</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="126" customFormat="1" ht="69.95" customHeight="1">
@@ -37891,7 +39024,7 @@
         <v>挂失存折</v>
       </c>
       <c r="F8" s="130" t="s">
-        <v>1022</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="128" customFormat="1" ht="21.95" customHeight="1"/>
@@ -37910,7 +39043,7 @@
       </c>
       <c r="E10" s="120"/>
       <c r="F10" s="125" t="s">
-        <v>1075</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="118" customFormat="1" ht="69.95" customHeight="1">
@@ -37952,7 +39085,7 @@
         <v>挂失存折</v>
       </c>
       <c r="F12" s="125" t="s">
-        <v>1072</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="128" customFormat="1" ht="21" customHeight="1">
@@ -37976,7 +39109,7 @@
       </c>
       <c r="E14" s="120"/>
       <c r="F14" s="121" t="s">
-        <v>1063</v>
+        <v>1059</v>
       </c>
       <c r="H14" s="123"/>
     </row>
@@ -38356,7 +39489,7 @@
         <v>挂失存折</v>
       </c>
       <c r="F38" s="130" t="s">
-        <v>1073</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="39" spans="1:8" s="128" customFormat="1" ht="18" customHeight="1">
@@ -38380,7 +39513,7 @@
       </c>
       <c r="E40" s="120"/>
       <c r="F40" s="125" t="s">
-        <v>1074</v>
+        <v>1070</v>
       </c>
       <c r="G40" s="122"/>
       <c r="H40" s="123"/>
@@ -38427,7 +39560,7 @@
       </c>
       <c r="E43" s="120"/>
       <c r="F43" s="125" t="s">
-        <v>1028</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="44" spans="1:8" s="126" customFormat="1" ht="69.95" customHeight="1">
@@ -38472,7 +39605,7 @@
       </c>
       <c r="E46" s="120"/>
       <c r="F46" s="125" t="s">
-        <v>1076</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="47" spans="1:8" s="128" customFormat="1" ht="17.100000000000001" customHeight="1">
@@ -38701,9 +39834,9 @@
       <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait"/>
     </customSheetView>
-    <customSheetView guid="{1E5A0D98-77D5-42E3-9872-0440613765AC}" scale="85">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
+    <customSheetView guid="{C2CB2F22-775D-44AC-B11A-784BA6146A8B}">
+      <pane xSplit="1" ySplit="1" topLeftCell="B44" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="F46" sqref="F46"/>
       <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait"/>
     </customSheetView>
@@ -38713,9 +39846,9 @@
       <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait"/>
     </customSheetView>
-    <customSheetView guid="{C2CB2F22-775D-44AC-B11A-784BA6146A8B}">
-      <pane xSplit="1" ySplit="1" topLeftCell="B44" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="F46" sqref="F46"/>
+    <customSheetView guid="{1E5A0D98-77D5-42E3-9872-0440613765AC}" scale="85">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
       <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait"/>
     </customSheetView>
@@ -38765,7 +39898,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="190" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="H1" s="117"/>
     </row>
@@ -38774,7 +39907,7 @@
         <v>94</v>
       </c>
       <c r="B2" s="143" t="s">
-        <v>1116</v>
+        <v>1111</v>
       </c>
       <c r="C2" s="142" t="s">
         <v>96</v>
@@ -38783,7 +39916,7 @@
         <v>97</v>
       </c>
       <c r="F2" s="143" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="142" customFormat="1" ht="40.5">
@@ -38791,7 +39924,7 @@
         <v>116</v>
       </c>
       <c r="B3" s="143" t="s">
-        <v>1117</v>
+        <v>1112</v>
       </c>
       <c r="C3" s="142" t="s">
         <v>96</v>
@@ -38804,7 +39937,7 @@
         <v>挂失</v>
       </c>
       <c r="F3" s="143" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="142" customFormat="1" ht="135">
@@ -38812,7 +39945,7 @@
         <v>576</v>
       </c>
       <c r="B4" s="143" t="s">
-        <v>1118</v>
+        <v>1113</v>
       </c>
       <c r="C4" s="142" t="s">
         <v>96</v>
@@ -38824,7 +39957,7 @@
         <v>575</v>
       </c>
       <c r="F4" s="143" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="144" customFormat="1">
@@ -38844,7 +39977,7 @@
         <v>97</v>
       </c>
       <c r="F6" s="143" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="G6" s="122"/>
     </row>
@@ -38866,7 +39999,7 @@
         <v>挂失</v>
       </c>
       <c r="F7" s="143" t="s">
-        <v>1079</v>
+        <v>1075</v>
       </c>
       <c r="G7" s="122"/>
     </row>
@@ -38887,7 +40020,7 @@
         <v>575</v>
       </c>
       <c r="F8" s="143" t="s">
-        <v>1077</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="144" customFormat="1">
@@ -38905,7 +40038,7 @@
         <v>97</v>
       </c>
       <c r="F10" s="143" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
       <c r="G10" s="122"/>
     </row>
@@ -38927,7 +40060,7 @@
         <v>挂失</v>
       </c>
       <c r="F11" s="143" t="s">
-        <v>1082</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="142" customFormat="1" ht="94.5">
@@ -38947,7 +40080,7 @@
         <v>575</v>
       </c>
       <c r="F12" s="143" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="144" customFormat="1">
@@ -38967,7 +40100,7 @@
         <v>97</v>
       </c>
       <c r="F14" s="143" t="s">
-        <v>1063</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="142" customFormat="1" ht="54">
@@ -39009,7 +40142,7 @@
         <v>575</v>
       </c>
       <c r="F16" s="143" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="17" spans="1:7" s="144" customFormat="1">
@@ -39361,7 +40494,7 @@
         <v>578</v>
       </c>
       <c r="F40" s="194" t="s">
-        <v>1083</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="41" spans="1:7" s="146" customFormat="1" ht="24" customHeight="1">
@@ -39399,7 +40532,7 @@
         <v>578</v>
       </c>
       <c r="F44" s="148" t="s">
-        <v>993</v>
+        <v>989</v>
       </c>
     </row>
     <row r="45" spans="1:7" s="146" customFormat="1" ht="15.95" customHeight="1">
@@ -39419,7 +40552,7 @@
         <v>578</v>
       </c>
       <c r="F46" s="148" t="s">
-        <v>994</v>
+        <v>990</v>
       </c>
     </row>
     <row r="47" spans="1:7" s="146" customFormat="1" ht="18.95" customHeight="1">
@@ -39666,7 +40799,7 @@
         <v>562</v>
       </c>
       <c r="F64" s="143" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
     </row>
     <row r="65" spans="1:7" s="142" customFormat="1" ht="80.099999999999994" customHeight="1">
@@ -39729,7 +40862,7 @@
         <v>562</v>
       </c>
       <c r="F68" s="143" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
     </row>
     <row r="69" spans="1:7" s="142" customFormat="1" ht="80.099999999999994" customHeight="1">
@@ -39979,7 +41112,7 @@
         <v>562</v>
       </c>
       <c r="F84" s="143" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
     </row>
     <row r="85" spans="1:7" s="142" customFormat="1" ht="80.099999999999994" customHeight="1">
@@ -40257,7 +41390,7 @@
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{1E5A0D98-77D5-42E3-9872-0440613765AC}" topLeftCell="A8">
+    <customSheetView guid="{C2CB2F22-775D-44AC-B11A-784BA6146A8B}" topLeftCell="A8">
       <selection activeCell="B10" sqref="B10"/>
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
     </customSheetView>
@@ -40265,7 +41398,7 @@
       <selection activeCell="G1" sqref="G1"/>
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
     </customSheetView>
-    <customSheetView guid="{C2CB2F22-775D-44AC-B11A-784BA6146A8B}" topLeftCell="A8">
+    <customSheetView guid="{1E5A0D98-77D5-42E3-9872-0440613765AC}" topLeftCell="A8">
       <selection activeCell="B10" sqref="B10"/>
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
     </customSheetView>
@@ -40315,7 +41448,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="154" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="57">
@@ -40332,7 +41465,7 @@
         <v>594</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="42.75">
@@ -40353,7 +41486,7 @@
         <v>取消短信通知</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -40397,7 +41530,7 @@
         <v>取消短信通知</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>1144</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -40441,7 +41574,7 @@
         <v>取消短信通知</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -40485,7 +41618,7 @@
         <v>取消短信通知</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="57">
@@ -40506,7 +41639,7 @@
         <v>电子银行取消短信通知</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -40550,7 +41683,7 @@
         <v>取消短信通知</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="28.5">
@@ -40594,7 +41727,7 @@
         <v>594</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="28.5">
@@ -40659,7 +41792,7 @@
         <v>取消短信通知</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -40747,7 +41880,7 @@
         <v>取消短信通知</v>
       </c>
       <c r="F29" s="15" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -40791,7 +41924,7 @@
         <v>取消短信通知</v>
       </c>
       <c r="F32" s="15" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -40835,7 +41968,7 @@
         <v>取消短信通知</v>
       </c>
       <c r="F35" s="15" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="28.5">
@@ -41068,7 +42201,7 @@
         <v>598</v>
       </c>
       <c r="F50" s="15" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -41088,7 +42221,7 @@
         <v>598</v>
       </c>
       <c r="F52" s="15" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -41128,7 +42261,7 @@
         <v>602</v>
       </c>
       <c r="F56" s="15" t="s">
-        <v>982</v>
+        <v>978</v>
       </c>
     </row>
   </sheetData>
@@ -41141,8 +42274,8 @@
       <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
       <autoFilter ref="A1:F56"/>
     </customSheetView>
-    <customSheetView guid="{1E5A0D98-77D5-42E3-9872-0440613765AC}" showAutoFilter="1" topLeftCell="B43">
-      <selection activeCell="F52" sqref="F52"/>
+    <customSheetView guid="{C2CB2F22-775D-44AC-B11A-784BA6146A8B}" showAutoFilter="1" topLeftCell="B43">
+      <selection activeCell="F54" sqref="F54"/>
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
       <pageSetup paperSize="9" orientation="portrait"/>
       <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
@@ -41155,8 +42288,8 @@
       <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
       <autoFilter ref="A1:F56"/>
     </customSheetView>
-    <customSheetView guid="{C2CB2F22-775D-44AC-B11A-784BA6146A8B}" showAutoFilter="1" topLeftCell="B43">
-      <selection activeCell="F54" sqref="F54"/>
+    <customSheetView guid="{1E5A0D98-77D5-42E3-9872-0440613765AC}" showAutoFilter="1" topLeftCell="B43">
+      <selection activeCell="F52" sqref="F52"/>
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
       <pageSetup paperSize="9" orientation="portrait"/>
       <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
@@ -41208,7 +42341,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="191" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="162" customFormat="1" ht="92.25" customHeight="1">
@@ -41216,7 +42349,7 @@
         <v>639</v>
       </c>
       <c r="B2" s="162" t="s">
-        <v>1119</v>
+        <v>1114</v>
       </c>
       <c r="C2" s="162" t="s">
         <v>506</v>
@@ -41225,15 +42358,15 @@
         <v>506</v>
       </c>
       <c r="F2" s="162" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="162" customFormat="1" ht="40.5">
       <c r="A3" s="162" t="s">
-        <v>1121</v>
+        <v>1116</v>
       </c>
       <c r="B3" s="162" t="s">
-        <v>1120</v>
+        <v>1115</v>
       </c>
       <c r="C3" s="162" t="s">
         <v>506</v>
@@ -41246,7 +42379,7 @@
         <v>注销</v>
       </c>
       <c r="F3" s="162" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="162" customFormat="1" ht="40.5">
@@ -41254,7 +42387,7 @@
         <v>116</v>
       </c>
       <c r="B4" s="163" t="s">
-        <v>1122</v>
+        <v>1117</v>
       </c>
       <c r="C4" s="162" t="s">
         <v>506</v>
@@ -41267,7 +42400,7 @@
         <v>注销银行卡</v>
       </c>
       <c r="F4" s="162" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="164" customFormat="1" ht="99.75">
@@ -41275,7 +42408,7 @@
         <v>648</v>
       </c>
       <c r="B5" s="165" t="s">
-        <v>1123</v>
+        <v>1118</v>
       </c>
       <c r="C5" s="164" t="s">
         <v>506</v>
@@ -41287,7 +42420,7 @@
         <v>646</v>
       </c>
       <c r="F5" s="166" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="162" customFormat="1" ht="14.25">
@@ -41311,7 +42444,7 @@
         <v>506</v>
       </c>
       <c r="F7" s="162" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="162" customFormat="1" ht="54">
@@ -41332,7 +42465,7 @@
         <v>注销</v>
       </c>
       <c r="F8" s="162" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="162" customFormat="1" ht="40.5">
@@ -41353,7 +42486,7 @@
         <v>注销银行卡</v>
       </c>
       <c r="F9" s="162" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="164" customFormat="1" ht="99.75">
@@ -41374,7 +42507,7 @@
         <v>注销信用卡</v>
       </c>
       <c r="F10" s="166" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="162" customFormat="1" ht="14.25">
@@ -41394,7 +42527,7 @@
         <v>506</v>
       </c>
       <c r="F12" s="162" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="162" customFormat="1" ht="27">
@@ -41975,7 +43108,7 @@
         <v>643</v>
       </c>
       <c r="F46" s="162" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
     </row>
     <row r="47" spans="1:6" s="162" customFormat="1" ht="28.5">
@@ -42122,7 +43255,7 @@
         <v>注销银行卡</v>
       </c>
       <c r="F55" s="162" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
     </row>
     <row r="56" spans="1:6" s="164" customFormat="1" ht="85.5">
@@ -42267,7 +43400,7 @@
         <v>注销</v>
       </c>
       <c r="F64" s="162" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
     </row>
     <row r="65" spans="1:6" s="162" customFormat="1" ht="40.5">
@@ -42288,7 +43421,7 @@
         <v>注销银行卡</v>
       </c>
       <c r="F65" s="162" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
     </row>
     <row r="66" spans="1:6" s="164" customFormat="1" ht="85.5">
@@ -43068,7 +44201,7 @@
         <v>646</v>
       </c>
       <c r="F113" s="166" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
     </row>
     <row r="114" spans="1:6" s="164" customFormat="1" ht="42.75">
@@ -43110,7 +44243,7 @@
         <v>650</v>
       </c>
       <c r="F116" s="166" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
     </row>
     <row r="117" spans="1:6" s="164" customFormat="1" ht="14.25">
@@ -43131,7 +44264,7 @@
         <v>650</v>
       </c>
       <c r="F118" s="166" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
     </row>
     <row r="119" spans="1:6" s="164" customFormat="1" ht="14.25">
@@ -43313,7 +44446,7 @@
       <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{1E5A0D98-77D5-42E3-9872-0440613765AC}" topLeftCell="A64">
+    <customSheetView guid="{C2CB2F22-775D-44AC-B11A-784BA6146A8B}" topLeftCell="A64">
       <selection activeCell="B41" sqref="B41"/>
       <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
@@ -43323,7 +44456,7 @@
       <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId3"/>
     </customSheetView>
-    <customSheetView guid="{C2CB2F22-775D-44AC-B11A-784BA6146A8B}" topLeftCell="A64">
+    <customSheetView guid="{1E5A0D98-77D5-42E3-9872-0440613765AC}" topLeftCell="A64">
       <selection activeCell="B41" sqref="B41"/>
       <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId4"/>
@@ -43377,7 +44510,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="114">
@@ -43394,7 +44527,7 @@
         <v>673</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="85.5">
@@ -43415,7 +44548,7 @@
         <v>开短信通知</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -43460,7 +44593,7 @@
         <v>开短信通知</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -43505,7 +44638,7 @@
         <v>开短信通知</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -43550,7 +44683,7 @@
         <v>开短信通知</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="71.25">
@@ -43571,7 +44704,7 @@
         <v>电子银行开短信通知</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -43638,7 +44771,7 @@
         <v>673</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="71.25">
@@ -43659,7 +44792,7 @@
         <v>开短信通知</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -43703,7 +44836,7 @@
         <v>开短信通知</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -43747,7 +44880,7 @@
         <v>开短信通知</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -43791,7 +44924,7 @@
         <v>开短信通知</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -43835,7 +44968,7 @@
         <v>开短信通知</v>
       </c>
       <c r="F31" s="15" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="28.5">
@@ -43921,7 +45054,7 @@
         <v>电子银行开短信通知</v>
       </c>
       <c r="F36" s="15" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -44003,7 +45136,7 @@
         <v>674</v>
       </c>
       <c r="F42" s="15" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="99.75">
@@ -44020,7 +45153,7 @@
         <v>674</v>
       </c>
       <c r="F44" s="15" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="99.75">
@@ -44037,7 +45170,7 @@
         <v>676</v>
       </c>
       <c r="F46" s="15" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="57">
@@ -44054,7 +45187,7 @@
         <v>676</v>
       </c>
       <c r="F48" s="15" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
     </row>
   </sheetData>
@@ -44067,7 +45200,7 @@
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
       <autoFilter ref="A1:F48"/>
     </customSheetView>
-    <customSheetView guid="{1E5A0D98-77D5-42E3-9872-0440613765AC}" showAutoFilter="1">
+    <customSheetView guid="{C2CB2F22-775D-44AC-B11A-784BA6146A8B}" showAutoFilter="1">
       <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="bottomRight" activeCell="B11" sqref="B11"/>
       <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -44081,7 +45214,7 @@
       <pageSetup paperSize="9" orientation="portrait"/>
       <autoFilter ref="A1:F48"/>
     </customSheetView>
-    <customSheetView guid="{C2CB2F22-775D-44AC-B11A-784BA6146A8B}" showAutoFilter="1">
+    <customSheetView guid="{1E5A0D98-77D5-42E3-9872-0440613765AC}" showAutoFilter="1">
       <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="bottomRight" activeCell="B11" sqref="B11"/>
       <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -44100,10 +45233,10 @@
   <dimension ref="A1:G76"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B80" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -44137,7 +45270,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="71.25">
@@ -44145,7 +45278,7 @@
         <v>62</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>1127</v>
+        <v>1122</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>8</v>
@@ -44154,7 +45287,7 @@
         <v>63</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>894</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="57">
@@ -44162,7 +45295,7 @@
         <v>65</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>1129</v>
+        <v>1124</v>
       </c>
       <c r="C3" s="16" t="s">
         <v>8</v>
@@ -44175,7 +45308,7 @@
         <v>办贷款</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="71.25">
@@ -44183,7 +45316,7 @@
         <v>69</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
       <c r="C4" s="16" t="s">
         <v>8</v>
@@ -44196,7 +45329,7 @@
         <v>办装修贷</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>1164</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -44308,7 +45441,7 @@
         <v>办贷款</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="71.25">
@@ -44353,7 +45486,7 @@
         <v>63</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="42.75">
@@ -44681,7 +45814,7 @@
         <v>67</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="35" spans="1:6" s="4" customFormat="1" ht="42.75">
@@ -45290,7 +46423,7 @@
         <v>67</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="73" spans="1:6" s="4" customFormat="1" ht="57">
@@ -45359,13 +46492,13 @@
   </sheetData>
   <customSheetViews>
     <customSheetView guid="{36746F77-9D30-4F67-8DD6-349629627742}" scale="85">
-      <pane xSplit="1" ySplit="1" topLeftCell="B80" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="B11" sqref="B11"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
       <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
     </customSheetView>
-    <customSheetView guid="{1E5A0D98-77D5-42E3-9872-0440613765AC}" scale="85">
+    <customSheetView guid="{C2CB2F22-775D-44AC-B11A-784BA6146A8B}" scale="85">
       <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
       <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -45379,7 +46512,7 @@
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
       <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
     </customSheetView>
-    <customSheetView guid="{C2CB2F22-775D-44AC-B11A-784BA6146A8B}" scale="85">
+    <customSheetView guid="{1E5A0D98-77D5-42E3-9872-0440613765AC}" scale="85">
       <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
       <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -45406,13 +46539,13 @@
     <customSheetView guid="{36746F77-9D30-4F67-8DD6-349629627742}">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{1E5A0D98-77D5-42E3-9872-0440613765AC}">
+    <customSheetView guid="{C2CB2F22-775D-44AC-B11A-784BA6146A8B}">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{CD69C0EA-EBFB-45E3-BEA5-CC470598666F}">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{C2CB2F22-775D-44AC-B11A-784BA6146A8B}">
+    <customSheetView guid="{1E5A0D98-77D5-42E3-9872-0440613765AC}">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -45425,8 +46558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="F55" sqref="F55"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -45460,7 +46593,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="51.75" customHeight="1">
@@ -45468,7 +46601,7 @@
         <v>749</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1124</v>
+        <v>1119</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>8</v>
@@ -45477,7 +46610,7 @@
         <v>750</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>1095</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="42.75">
@@ -45485,7 +46618,7 @@
         <v>751</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1130</v>
+        <v>1125</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>8</v>
@@ -45498,7 +46631,7 @@
         <v>办贷款</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15" customHeight="1">
@@ -45567,7 +46700,7 @@
         <v>755</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="48.75" customHeight="1">
@@ -45680,7 +46813,7 @@
         <v>办贷款</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="12" customHeight="1">
@@ -45787,7 +46920,7 @@
         <v>758</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="85.5">
@@ -46158,13 +47291,13 @@
   </sheetData>
   <autoFilter ref="A1:F50"/>
   <customSheetViews>
-    <customSheetView guid="{36746F77-9D30-4F67-8DD6-349629627742}" showAutoFilter="1" topLeftCell="A52">
-      <selection activeCell="F55" sqref="F55"/>
+    <customSheetView guid="{36746F77-9D30-4F67-8DD6-349629627742}" showAutoFilter="1" topLeftCell="A2">
+      <selection activeCell="F2" sqref="F2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
       <autoFilter ref="A1:F50"/>
     </customSheetView>
-    <customSheetView guid="{1E5A0D98-77D5-42E3-9872-0440613765AC}" showAutoFilter="1">
+    <customSheetView guid="{C2CB2F22-775D-44AC-B11A-784BA6146A8B}" showAutoFilter="1">
       <selection activeCell="F23" sqref="F23"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
@@ -46176,7 +47309,7 @@
       <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId3"/>
       <autoFilter ref="A1:F50"/>
     </customSheetView>
-    <customSheetView guid="{C2CB2F22-775D-44AC-B11A-784BA6146A8B}" showAutoFilter="1">
+    <customSheetView guid="{1E5A0D98-77D5-42E3-9872-0440613765AC}" showAutoFilter="1">
       <selection activeCell="F23" sqref="F23"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId4"/>
@@ -46228,7 +47361,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="22" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="26" customFormat="1" ht="84.75" customHeight="1">
@@ -46236,7 +47369,7 @@
         <v>104</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>1131</v>
+        <v>1126</v>
       </c>
       <c r="C2" s="26" t="s">
         <v>106</v>
@@ -46245,7 +47378,7 @@
         <v>106</v>
       </c>
       <c r="F2" s="27" t="s">
-        <v>900</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="26" customFormat="1" ht="69.95" customHeight="1">
@@ -46253,7 +47386,7 @@
         <v>107</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>1132</v>
+        <v>1127</v>
       </c>
       <c r="C3" s="26" t="s">
         <v>106</v>
@@ -46285,7 +47418,7 @@
         <v>106</v>
       </c>
       <c r="F5" s="27" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="26" customFormat="1" ht="69.95" customHeight="1">
@@ -46405,7 +47538,7 @@
         <v>109</v>
       </c>
       <c r="F14" s="27" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="31" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -46425,7 +47558,7 @@
         <v>109</v>
       </c>
       <c r="F16" s="27" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="31" customFormat="1" ht="21" customHeight="1">
@@ -46505,7 +47638,7 @@
         <v>106</v>
       </c>
       <c r="F22" s="27" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="31" customFormat="1" ht="24" customHeight="1">
@@ -46605,7 +47738,7 @@
         <v>118</v>
       </c>
       <c r="F30" s="27" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
     </row>
     <row r="31" spans="1:6" s="31" customFormat="1" ht="24" customHeight="1">
@@ -46625,7 +47758,7 @@
         <v>118</v>
       </c>
       <c r="F32" s="27" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
     </row>
   </sheetData>
@@ -46635,7 +47768,7 @@
       <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait"/>
     </customSheetView>
-    <customSheetView guid="{1E5A0D98-77D5-42E3-9872-0440613765AC}" topLeftCell="A7">
+    <customSheetView guid="{C2CB2F22-775D-44AC-B11A-784BA6146A8B}" topLeftCell="A22">
       <selection activeCell="G14" sqref="G14"/>
       <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait"/>
@@ -46645,7 +47778,7 @@
       <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait"/>
     </customSheetView>
-    <customSheetView guid="{C2CB2F22-775D-44AC-B11A-784BA6146A8B}" topLeftCell="A22">
+    <customSheetView guid="{1E5A0D98-77D5-42E3-9872-0440613765AC}" topLeftCell="A7">
       <selection activeCell="G14" sqref="G14"/>
       <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait"/>
@@ -46662,7 +47795,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F9" sqref="F8:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -46694,15 +47827,15 @@
         <v>5</v>
       </c>
       <c r="G1" s="22" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="35" customFormat="1" ht="175.5">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="35" customFormat="1" ht="189">
       <c r="A2" s="35" t="s">
         <v>122</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>1099</v>
+        <v>1094</v>
       </c>
       <c r="C2" s="35" t="s">
         <v>123</v>
@@ -46711,7 +47844,7 @@
         <v>124</v>
       </c>
       <c r="F2" s="35" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -46722,11 +47855,11 @@
   </sheetData>
   <customSheetViews>
     <customSheetView guid="{36746F77-9D30-4F67-8DD6-349629627742}">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F9" sqref="F8:F9"/>
       <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{1E5A0D98-77D5-42E3-9872-0440613765AC}">
+    <customSheetView guid="{C2CB2F22-775D-44AC-B11A-784BA6146A8B}">
       <selection activeCell="D26" sqref="D26"/>
       <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
@@ -46736,7 +47869,7 @@
       <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
     </customSheetView>
-    <customSheetView guid="{C2CB2F22-775D-44AC-B11A-784BA6146A8B}">
+    <customSheetView guid="{1E5A0D98-77D5-42E3-9872-0440613765AC}">
       <selection activeCell="D26" sqref="D26"/>
       <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId4"/>
@@ -46752,8 +47885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G133"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -46785,7 +47918,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="92.25" customHeight="1">
@@ -46802,7 +47935,7 @@
         <v>129</v>
       </c>
       <c r="F2" s="37" t="s">
-        <v>1153</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="27">
@@ -46844,7 +47977,7 @@
         <v>注销银行卡</v>
       </c>
       <c r="F4" s="37" t="s">
-        <v>815</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="39" customFormat="1" ht="14.25">
@@ -46868,7 +48001,7 @@
         <v>138</v>
       </c>
       <c r="F6" s="37" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="40.5">
@@ -46976,7 +48109,7 @@
         <v>注销银行卡</v>
       </c>
       <c r="F12" s="37" t="s">
-        <v>815</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="39" customFormat="1" ht="14.25">
@@ -47375,7 +48508,7 @@
         <v>145</v>
       </c>
       <c r="F37" s="37" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="27">
@@ -48045,13 +49178,13 @@
   </sheetData>
   <autoFilter ref="A1:F41"/>
   <customSheetViews>
-    <customSheetView guid="{36746F77-9D30-4F67-8DD6-349629627742}" showAutoFilter="1" topLeftCell="A40">
-      <selection activeCell="F6" sqref="F6"/>
+    <customSheetView guid="{36746F77-9D30-4F67-8DD6-349629627742}" showAutoFilter="1">
+      <selection activeCell="F4" sqref="F4"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
       <autoFilter ref="A1:F41"/>
     </customSheetView>
-    <customSheetView guid="{1E5A0D98-77D5-42E3-9872-0440613765AC}" showAutoFilter="1">
+    <customSheetView guid="{C2CB2F22-775D-44AC-B11A-784BA6146A8B}" showAutoFilter="1">
       <selection activeCell="F7" sqref="F7"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -48063,7 +49196,7 @@
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
       <autoFilter ref="A1:F41"/>
     </customSheetView>
-    <customSheetView guid="{C2CB2F22-775D-44AC-B11A-784BA6146A8B}" showAutoFilter="1">
+    <customSheetView guid="{1E5A0D98-77D5-42E3-9872-0440613765AC}" showAutoFilter="1">
       <selection activeCell="F7" sqref="F7"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
@@ -48111,7 +49244,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="37" customFormat="1" ht="92.25" customHeight="1">
@@ -48119,7 +49252,7 @@
         <v>176</v>
       </c>
       <c r="B2" s="37" t="s">
-        <v>1133</v>
+        <v>1128</v>
       </c>
       <c r="C2" s="37" t="s">
         <v>178</v>
@@ -48128,7 +49261,7 @@
         <v>178</v>
       </c>
       <c r="F2" s="37" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="37" customFormat="1" ht="14.25">
@@ -48136,7 +49269,7 @@
         <v>179</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>1134</v>
+        <v>1129</v>
       </c>
       <c r="C3" s="37" t="s">
         <v>178</v>
@@ -48187,7 +49320,7 @@
         <v>注销</v>
       </c>
       <c r="F6" s="185" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="121.5">
@@ -48205,7 +49338,7 @@
       </c>
       <c r="E8" s="37"/>
       <c r="F8" s="186" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="37" customFormat="1" ht="135">
@@ -48222,7 +49355,7 @@
         <v>181</v>
       </c>
       <c r="F10" s="37" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -48234,7 +49367,7 @@
       <selection activeCell="F14" sqref="F14"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{1E5A0D98-77D5-42E3-9872-0440613765AC}">
+    <customSheetView guid="{C2CB2F22-775D-44AC-B11A-784BA6146A8B}">
       <selection activeCell="F8" sqref="F8"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -48242,7 +49375,7 @@
       <selection activeCell="G1" sqref="G1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{C2CB2F22-775D-44AC-B11A-784BA6146A8B}">
+    <customSheetView guid="{1E5A0D98-77D5-42E3-9872-0440613765AC}">
       <selection activeCell="F8" sqref="F8"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -48289,7 +49422,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="41" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="189">
@@ -48297,7 +49430,7 @@
         <v>189</v>
       </c>
       <c r="B2" s="43" t="s">
-        <v>1135</v>
+        <v>1130</v>
       </c>
       <c r="C2" s="42" t="s">
         <v>189</v>
@@ -48306,7 +49439,7 @@
         <v>189</v>
       </c>
       <c r="F2" s="42" t="s">
-        <v>1096</v>
+        <v>1091</v>
       </c>
       <c r="G2" s="42">
         <v>15</v>
@@ -48327,7 +49460,7 @@
         <v>189</v>
       </c>
       <c r="F4" s="42" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="G4" s="42">
         <v>15</v>
@@ -48340,7 +49473,7 @@
       <selection activeCell="I19" sqref="I19"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{1E5A0D98-77D5-42E3-9872-0440613765AC}">
+    <customSheetView guid="{C2CB2F22-775D-44AC-B11A-784BA6146A8B}">
       <selection activeCell="F4" sqref="F4"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -48348,7 +49481,7 @@
       <selection activeCell="G5" sqref="G5"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{C2CB2F22-775D-44AC-B11A-784BA6146A8B}">
+    <customSheetView guid="{1E5A0D98-77D5-42E3-9872-0440613765AC}">
       <selection activeCell="F4" sqref="F4"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
